--- a/Unity/Assets/Config/Excel/JingLingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/JingLingConfig.xlsx
@@ -1,38 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8773E043-1041-4232-88EE-3AEBF16C5565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -41,42 +47,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">-1 永久
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>其他对应秒时间</t>
+-1 永久
+其他对应秒时间</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{AAD6C0D3-924B-481D-AED4-55A29C94E229}">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1.每天随机给东西   参数:掉落ID
@@ -94,7 +79,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+  <si>
+    <t>c</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -120,6 +108,9 @@
     <t>有效期(秒)</t>
   </si>
   <si>
+    <t>属性描述</t>
+  </si>
+  <si>
     <t>额外属性描述</t>
   </si>
   <si>
@@ -132,6 +123,15 @@
     <t>Y便宜</t>
   </si>
   <si>
+    <t>功能类型</t>
+  </si>
+  <si>
+    <t>功能参数</t>
+  </si>
+  <si>
+    <t>自动拾取</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -153,6 +153,9 @@
     <t>ValidityTime</t>
   </si>
   <si>
+    <t>ProDes</t>
+  </si>
+  <si>
     <t>Des</t>
   </si>
   <si>
@@ -168,6 +171,15 @@
     <t>GetDes</t>
   </si>
   <si>
+    <t>FunctionType</t>
+  </si>
+  <si>
+    <t>FunctionValue</t>
+  </si>
+  <si>
+    <t>AutoPick</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -180,269 +192,218 @@
     <t>幸运星</t>
   </si>
   <si>
+    <t>100403;50</t>
+  </si>
+  <si>
+    <t>攻击提升50点</t>
+  </si>
+  <si>
+    <t>每天会随机给你一些金币！</t>
+  </si>
+  <si>
+    <t>野外概率遇到</t>
+  </si>
+  <si>
     <t>浣熊精灵</t>
   </si>
   <si>
     <t>100203;500</t>
   </si>
   <si>
+    <t>生命上限+500点</t>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币</t>
+  </si>
+  <si>
     <t>贪婪龟</t>
   </si>
   <si>
+    <t>202103;0.01</t>
+  </si>
+  <si>
+    <t>重击概率+1%</t>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币和道具</t>
+  </si>
+  <si>
+    <t>积分系统获取</t>
+  </si>
+  <si>
     <t>灯鱼精灵</t>
   </si>
   <si>
+    <t>100202;0.01</t>
+  </si>
+  <si>
+    <t>生命上限+1%</t>
+  </si>
+  <si>
+    <t>每次玩家在战斗中受到伤害,有概率释放自己的治愈能力,恢复一定生命值.</t>
+  </si>
+  <si>
+    <t>野外有概率遇到</t>
+  </si>
+  <si>
     <t>金钱豹</t>
   </si>
   <si>
+    <t>119303;50</t>
+  </si>
+  <si>
+    <t>命中等级提升50点</t>
+  </si>
+  <si>
+    <t>在敌人身上获得金币的数量提升5%</t>
+  </si>
+  <si>
     <t>芭比扣</t>
   </si>
   <si>
+    <t>200903;0.05</t>
+  </si>
+  <si>
+    <t>伤害加成+5%</t>
+  </si>
+  <si>
+    <t>帮助玩家主动拾取地上的金币和道具,可以在世界的任何一个地方打开你的仓库</t>
+  </si>
+  <si>
     <t>熊熊</t>
   </si>
   <si>
+    <t>200303;0.01</t>
+  </si>
+  <si>
+    <t>闪避概率+1%</t>
+  </si>
+  <si>
+    <t>每次玩家进入战斗会给起释放一个防御状态,使其攻击受到伤害降低5%,持续30秒</t>
+  </si>
+  <si>
     <t>魔焰</t>
   </si>
   <si>
+    <t>120703;100</t>
+  </si>
+  <si>
+    <t>法术强度提升100点</t>
+  </si>
+  <si>
+    <t>在玩家受到敌人攻击会出现随机魔法攻击命中敌人</t>
+  </si>
+  <si>
     <t>波比</t>
   </si>
   <si>
+    <t>100403;100</t>
+  </si>
+  <si>
+    <t>攻击提升100点</t>
+  </si>
+  <si>
+    <t>每次玩家进入战斗会释放一个攻击状态,使其攻击上升5%,持续30秒</t>
+  </si>
+  <si>
+    <t>签到系统获取</t>
+  </si>
+  <si>
     <t>鬼鬼</t>
   </si>
   <si>
+    <t>100203;1000</t>
+  </si>
+  <si>
+    <t>生命上限+1000点</t>
+  </si>
+  <si>
+    <t>当玩家身上血量降低至30%时会在玩家周围释放一个范围技能,造成2秒眩晕</t>
+  </si>
+  <si>
     <t>调皮精灵</t>
   </si>
   <si>
+    <t>120603;100</t>
+  </si>
+  <si>
+    <t>攻击强度提升100点</t>
+  </si>
+  <si>
+    <t>每次使用技能都有概率额外向前释放一个冲击波技能</t>
+  </si>
+  <si>
     <t>波波</t>
   </si>
   <si>
+    <t>200403;0.01</t>
+  </si>
+  <si>
+    <t>抗暴率+1%</t>
+  </si>
+  <si>
+    <t>在敌人身上总能多发现一些无色晶体</t>
+  </si>
+  <si>
     <t>华华</t>
   </si>
   <si>
+    <t>100603;100</t>
+  </si>
+  <si>
+    <t>物防提升100点</t>
+  </si>
+  <si>
+    <t>可以在世界的任何一个地方开始洗炼你崭新的装备</t>
+  </si>
+  <si>
     <t>呆呆</t>
   </si>
   <si>
+    <t>每次玩家受到攻击伤害,有概率会在玩家附近释放一个范围技能,造成伤害</t>
+  </si>
+  <si>
     <t>南瓜恶人</t>
   </si>
   <si>
-    <t>FunctionType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能参数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionValue</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>野外有概率遇到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>积分系统获取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>签到系统获取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>野外概率遇到</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>属性描述</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProDes</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命上限+500点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命上限+1%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中等级提升50点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术强度提升100点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命上限+1000点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗暴率+1%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击强度提升100点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防提升100点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升50点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>重击概率+1%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避概率+1%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击提升100点</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天会随机给你一些金币！</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助玩家主动拾取地上的金币</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助玩家主动拾取地上的金币和道具</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敌人身上获得金币的数量提升5%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次玩家进入战斗会给起释放一个防御状态,使其攻击受到伤害降低5%,持续30秒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>在玩家受到敌人攻击会出现随机魔法攻击命中敌人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次玩家进入战斗会释放一个攻击状态,使其攻击上升5%,持续30秒</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>当玩家身上血量降低至30%时会在玩家周围释放一个范围技能,造成2秒眩晕</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次使用技能都有概率额外向前释放一个冲击波技能</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>在敌人身上总能多发现一些无色晶体</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在世界的任何一个地方开始洗炼你崭新的装备</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次玩家受到攻击伤害,有概率会在玩家附近释放一个范围技能,造成伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次玩家在战斗中受到伤害,有概率释放自己的治愈能力,恢复一定生命值.</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>100403;50</t>
-  </si>
-  <si>
-    <t>202103;0.01</t>
-  </si>
-  <si>
-    <t>100202;0.01</t>
-  </si>
-  <si>
-    <t>119303;50</t>
-  </si>
-  <si>
-    <t>200403;0.01</t>
-  </si>
-  <si>
-    <t>200303;0.01</t>
-  </si>
-  <si>
-    <t>120703;100</t>
-  </si>
-  <si>
-    <t>100403;100</t>
-  </si>
-  <si>
-    <t>100203;1000</t>
-  </si>
-  <si>
-    <t>120603;100</t>
-  </si>
-  <si>
-    <t>100603;100</t>
-  </si>
-  <si>
-    <t>自动拾取</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>AutoPick</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>200103;0.05</t>
+  </si>
+  <si>
+    <t>暴击概率+5%</t>
   </si>
   <si>
     <t>帮助玩家主动拾取地上的金币和道具,每次玩家进入战斗,会有概率召唤自己的一个分身协助玩家进行战斗</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>帮助玩家主动拾取地上的金币和道具,可以在世界的任何一个地方打开你的仓库</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加成+5%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>200903;0.05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击概率+5%</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>200103;0.05</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运星X</t>
+  </si>
+  <si>
+    <t>击杀一定怪物激活</t>
+  </si>
+  <si>
+    <t>浣熊精灵X</t>
+  </si>
+  <si>
+    <t>贪婪龟X</t>
+  </si>
+  <si>
+    <t>灯鱼精灵X</t>
+  </si>
+  <si>
+    <t>金钱豹X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,69 +415,179 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,12 +602,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -557,11 +814,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,33 +1072,68 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -886,19 +1420,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -915,180 +1449,180 @@
     <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="2" customWidth="1"/>
     <col min="18" max="19" width="18.75" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="20" max="16383" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="20.1" customHeight="1"/>
+    <row r="2" ht="20.1" customHeight="1" spans="19:19">
       <c r="S2" s="2" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" ht="20.1" customHeight="1" spans="3:19">
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="20.1" customHeight="1" spans="3:19">
+      <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>89</v>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>90</v>
+    <row r="5" ht="20.1" customHeight="1" spans="3:19">
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="3:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4">
         <v>10001</v>
@@ -1096,8 +1630,8 @@
       <c r="F6" s="4">
         <v>10001</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>78</v>
+      <c r="G6" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H6" s="4">
         <v>10001</v>
@@ -1109,10 +1643,10 @@
         <v>-1</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>65</v>
+        <v>38</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="M6" s="4">
         <v>2</v>
@@ -1123,8 +1657,8 @@
       <c r="O6" s="4">
         <v>0</v>
       </c>
-      <c r="P6" s="6" t="s">
-        <v>50</v>
+      <c r="P6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="Q6" s="4">
         <v>1</v>
@@ -1136,12 +1670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="20.1" customHeight="1" spans="3:19">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4">
         <v>10002</v>
@@ -1149,8 +1683,8 @@
       <c r="F7" s="4">
         <v>10002</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>29</v>
+      <c r="G7" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H7" s="4">
         <v>10002</v>
@@ -1162,10 +1696,10 @@
         <v>-1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>66</v>
+        <v>43</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="M7" s="4">
         <v>2</v>
@@ -1176,8 +1710,8 @@
       <c r="O7" s="4">
         <v>0</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>50</v>
+      <c r="P7" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="Q7" s="4">
         <v>2</v>
@@ -1187,12 +1721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="20.1" customHeight="1" spans="3:19">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E8" s="4">
         <v>10003</v>
@@ -1200,8 +1734,8 @@
       <c r="F8" s="4">
         <v>10003</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>79</v>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H8" s="4">
         <v>10008</v>
@@ -1213,10 +1747,10 @@
         <v>-1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>67</v>
+        <v>47</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="M8" s="4">
         <v>2</v>
@@ -1227,8 +1761,8 @@
       <c r="O8" s="4">
         <v>0</v>
       </c>
-      <c r="P8" s="6" t="s">
-        <v>48</v>
+      <c r="P8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="Q8" s="4">
         <v>0</v>
@@ -1238,12 +1772,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="20.1" customHeight="1" spans="3:19">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E9" s="4">
         <v>10004</v>
@@ -1251,8 +1785,8 @@
       <c r="F9" s="4">
         <v>10004</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>80</v>
+      <c r="G9" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="H9" s="4">
         <v>10004</v>
@@ -1264,10 +1798,10 @@
         <v>-1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>77</v>
+        <v>52</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="M9" s="4">
         <v>2</v>
@@ -1278,8 +1812,8 @@
       <c r="O9" s="4">
         <v>0</v>
       </c>
-      <c r="P9" s="6" t="s">
-        <v>47</v>
+      <c r="P9" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="Q9" s="4">
         <v>4</v>
@@ -1291,12 +1825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" ht="20.1" customHeight="1" spans="3:19">
       <c r="C10" s="4">
         <v>10005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E10" s="4">
         <v>10005</v>
@@ -1304,8 +1838,8 @@
       <c r="F10" s="4">
         <v>10005</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>81</v>
+      <c r="G10" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="H10" s="4">
         <v>10016</v>
@@ -1317,10 +1851,10 @@
         <v>-1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>68</v>
+        <v>57</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="M10" s="4">
         <v>2</v>
@@ -1331,25 +1865,25 @@
       <c r="O10" s="4">
         <v>0</v>
       </c>
-      <c r="P10" s="6" t="s">
-        <v>47</v>
+      <c r="P10" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="Q10" s="4">
         <v>5</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="S10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" ht="20.1" customHeight="1" spans="3:19">
       <c r="C11" s="4">
         <v>10006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="E11" s="4">
         <v>10006</v>
@@ -1357,8 +1891,8 @@
       <c r="F11" s="4">
         <v>10006</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>96</v>
+      <c r="G11" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="H11" s="4">
         <v>10005</v>
@@ -1370,10 +1904,10 @@
         <v>-1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>94</v>
+        <v>61</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="M11" s="4">
         <v>2</v>
@@ -1384,8 +1918,8 @@
       <c r="O11" s="4">
         <v>0</v>
       </c>
-      <c r="P11" s="6" t="s">
-        <v>48</v>
+      <c r="P11" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="Q11" s="4">
         <v>7</v>
@@ -1397,12 +1931,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" ht="20.1" customHeight="1" spans="3:19">
       <c r="C12" s="4">
         <v>10007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4">
         <v>10007</v>
@@ -1410,8 +1944,8 @@
       <c r="F12" s="4">
         <v>10007</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>83</v>
+      <c r="G12" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H12" s="4">
         <v>10006</v>
@@ -1423,10 +1957,10 @@
         <v>-1</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="M12" s="4">
         <v>2</v>
@@ -1437,8 +1971,8 @@
       <c r="O12" s="4">
         <v>0</v>
       </c>
-      <c r="P12" s="6" t="s">
-        <v>47</v>
+      <c r="P12" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="Q12" s="4">
         <v>4</v>
@@ -1450,12 +1984,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" ht="20.1" customHeight="1" spans="3:19">
       <c r="C13" s="4">
         <v>10008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E13" s="4">
         <v>10008</v>
@@ -1463,8 +1997,8 @@
       <c r="F13" s="4">
         <v>10008</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>84</v>
+      <c r="G13" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="H13" s="4">
         <v>10007</v>
@@ -1476,9 +2010,9 @@
         <v>-1</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>70</v>
       </c>
       <c r="M13" s="4">
@@ -1490,8 +2024,8 @@
       <c r="O13" s="4">
         <v>0</v>
       </c>
-      <c r="P13" s="6" t="s">
-        <v>47</v>
+      <c r="P13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="Q13" s="4">
         <v>4</v>
@@ -1503,12 +2037,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" ht="20.1" customHeight="1" spans="3:19">
       <c r="C14" s="4">
         <v>10009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E14" s="4">
         <v>10009</v>
@@ -1516,8 +2050,8 @@
       <c r="F14" s="4">
         <v>10009</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>85</v>
+      <c r="G14" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="H14" s="4">
         <v>10003</v>
@@ -1529,10 +2063,10 @@
         <v>-1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="M14" s="4">
         <v>2</v>
@@ -1543,8 +2077,8 @@
       <c r="O14" s="4">
         <v>0</v>
       </c>
-      <c r="P14" s="6" t="s">
-        <v>49</v>
+      <c r="P14" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="Q14" s="4">
         <v>4</v>
@@ -1556,12 +2090,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="20.1" customHeight="1" spans="3:19">
       <c r="C15" s="4">
         <v>10010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E15" s="4">
         <v>10010</v>
@@ -1569,8 +2103,8 @@
       <c r="F15" s="4">
         <v>10010</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>86</v>
+      <c r="G15" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="H15" s="4">
         <v>10009</v>
@@ -1582,10 +2116,10 @@
         <v>-1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="M15" s="4">
         <v>2</v>
@@ -1596,8 +2130,8 @@
       <c r="O15" s="4">
         <v>0</v>
       </c>
-      <c r="P15" s="6" t="s">
-        <v>47</v>
+      <c r="P15" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="Q15" s="4">
         <v>4</v>
@@ -1609,12 +2143,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" ht="20.1" customHeight="1" spans="3:19">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4">
         <v>10011</v>
@@ -1622,8 +2156,8 @@
       <c r="F16" s="4">
         <v>10011</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>87</v>
+      <c r="G16" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="H16" s="4">
         <v>10011</v>
@@ -1635,10 +2169,10 @@
         <v>-1</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>73</v>
+        <v>82</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="M16" s="4">
         <v>2</v>
@@ -1649,8 +2183,8 @@
       <c r="O16" s="4">
         <v>0</v>
       </c>
-      <c r="P16" s="6" t="s">
-        <v>47</v>
+      <c r="P16" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="Q16" s="4">
         <v>4</v>
@@ -1662,12 +2196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" ht="20.1" customHeight="1" spans="3:19">
       <c r="C17" s="4">
         <v>10012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="E17" s="4">
         <v>10012</v>
@@ -1675,8 +2209,8 @@
       <c r="F17" s="4">
         <v>10012</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>82</v>
+      <c r="G17" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="H17" s="4">
         <v>10013</v>
@@ -1688,10 +2222,10 @@
         <v>-1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="M17" s="4">
         <v>2</v>
@@ -1702,8 +2236,8 @@
       <c r="O17" s="4">
         <v>0</v>
       </c>
-      <c r="P17" s="6" t="s">
-        <v>47</v>
+      <c r="P17" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="Q17" s="4">
         <v>6</v>
@@ -1715,12 +2249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" ht="20.1" customHeight="1" spans="3:19">
       <c r="C18" s="4">
         <v>10013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E18" s="4">
         <v>10013</v>
@@ -1728,8 +2262,8 @@
       <c r="F18" s="4">
         <v>10013</v>
       </c>
-      <c r="G18" s="8" t="s">
-        <v>88</v>
+      <c r="G18" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="H18" s="4">
         <v>10014</v>
@@ -1741,10 +2275,10 @@
         <v>-1</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>75</v>
+        <v>90</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="M18" s="4">
         <v>2</v>
@@ -1755,8 +2289,8 @@
       <c r="O18" s="4">
         <v>0</v>
       </c>
-      <c r="P18" s="6" t="s">
-        <v>47</v>
+      <c r="P18" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="Q18" s="4">
         <v>7</v>
@@ -1768,12 +2302,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" ht="20.1" customHeight="1" spans="3:19">
       <c r="C19" s="4">
         <v>10014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E19" s="4">
         <v>10014</v>
@@ -1781,8 +2315,8 @@
       <c r="F19" s="4">
         <v>10014</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>83</v>
+      <c r="G19" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="H19" s="4">
         <v>10015</v>
@@ -1794,10 +2328,10 @@
         <v>-1</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>76</v>
+        <v>65</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="M19" s="4">
         <v>2</v>
@@ -1808,8 +2342,8 @@
       <c r="O19" s="4">
         <v>0</v>
       </c>
-      <c r="P19" s="6" t="s">
-        <v>49</v>
+      <c r="P19" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="Q19" s="4">
         <v>4</v>
@@ -1821,12 +2355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" ht="20.1" customHeight="1" spans="3:19">
       <c r="C20" s="4">
         <v>10015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E20" s="4">
         <v>10015</v>
@@ -1834,8 +2368,8 @@
       <c r="F20" s="4">
         <v>10015</v>
       </c>
-      <c r="G20" s="8" t="s">
-        <v>98</v>
+      <c r="G20" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="H20" s="4">
         <v>10015</v>
@@ -1847,10 +2381,10 @@
         <v>-1</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="M20" s="4">
         <v>2</v>
@@ -1861,8 +2395,8 @@
       <c r="O20" s="4">
         <v>0</v>
       </c>
-      <c r="P20" s="6" t="s">
-        <v>48</v>
+      <c r="P20" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="Q20" s="4">
         <v>4</v>
@@ -1874,22 +2408,268 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q22" s="7"/>
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+      <c r="C21" s="4">
+        <v>20001</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10001</v>
+      </c>
+      <c r="F21" s="4">
+        <v>10001</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="4">
+        <v>10001</v>
+      </c>
+      <c r="I21" s="4">
+        <v>10</v>
+      </c>
+      <c r="J21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="4">
+        <v>2</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>0</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Q23" s="7"/>
+    <row r="22" ht="20.1" customHeight="1" spans="3:19">
+      <c r="C22" s="4">
+        <v>20002</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10002</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10002</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10002</v>
+      </c>
+      <c r="I22" s="4">
+        <v>8</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="4">
+        <v>2</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="3:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="20.1" customHeight="1" spans="3:19">
+      <c r="C23" s="4">
+        <v>20003</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10003</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10008</v>
+      </c>
+      <c r="I23" s="4">
+        <v>10</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M23" s="4">
+        <v>2</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" ht="20.1" customHeight="1" spans="3:19">
+      <c r="C24" s="4">
+        <v>20004</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10004</v>
+      </c>
+      <c r="F24" s="4">
+        <v>10004</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10004</v>
+      </c>
+      <c r="I24" s="4">
+        <v>10</v>
+      </c>
+      <c r="J24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>0</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="20.1" customHeight="1" spans="3:19">
+      <c r="C25" s="4">
+        <v>20005</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10005</v>
+      </c>
+      <c r="F25" s="4">
+        <v>10005</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" s="4">
+        <v>10016</v>
+      </c>
+      <c r="I25" s="4">
+        <v>10</v>
+      </c>
+      <c r="J25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="M25" s="4">
+        <v>2</v>
+      </c>
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>0</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="20.1" customHeight="1"/>
+    <row r="27" ht="20.1" customHeight="1"/>
+    <row r="28" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/JingLingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/JingLingConfig.xlsx
@@ -29,10 +29,60 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="G3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+GetType
+1 使用道具直接获取
+2 击杀一定的怪物</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+显示用
+1 领主
+2 野怪
+3 奇遇</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -55,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="0">
+    <comment ref="V3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -74,12 +124,60 @@
         </r>
       </text>
     </comment>
+    <comment ref="E4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1  道具激活
+2  击杀怪物</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+GetType
+1 
+2 怪物ID
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
   <si>
     <t>c</t>
   </si>
@@ -90,6 +188,21 @@
     <t>名称</t>
   </si>
   <si>
+    <t>获取方式</t>
+  </si>
+  <si>
+    <t>获取参数</t>
+  </si>
+  <si>
+    <t>激活点数</t>
+  </si>
+  <si>
+    <t>激活概率</t>
+  </si>
+  <si>
+    <t>精灵类型</t>
+  </si>
+  <si>
     <t>图标显示</t>
   </si>
   <si>
@@ -135,6 +248,21 @@
     <t>Name</t>
   </si>
   <si>
+    <t>GetWay</t>
+  </si>
+  <si>
+    <t>GetValue</t>
+  </si>
+  <si>
+    <t>NeedPoint</t>
+  </si>
+  <si>
+    <t>ActivePro</t>
+  </si>
+  <si>
+    <t>JingLingType</t>
+  </si>
+  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -186,6 +314,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>int[]</t>
+  </si>
+  <si>
     <t>double</t>
   </si>
   <si>
@@ -378,6 +509,9 @@
     <t>幸运星X</t>
   </si>
   <si>
+    <t>310101,310102</t>
+  </si>
+  <si>
     <t>击杀一定怪物激活</t>
   </si>
   <si>
@@ -385,6 +519,9 @@
   </si>
   <si>
     <t>贪婪龟X</t>
+  </si>
+  <si>
+    <t>310103,310161</t>
   </si>
   <si>
     <t>灯鱼精灵X</t>
@@ -1060,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1072,10 +1209,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1426,10 +1569,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:S28"/>
+  <dimension ref="C1:X28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1438,27 +1581,31 @@
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="14.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="2" customWidth="1"/>
-    <col min="12" max="12" width="62.25" style="2" customWidth="1"/>
-    <col min="13" max="15" width="9" style="2"/>
+    <col min="5" max="5" width="14.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="19.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="14.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="23.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="15.5" style="2" customWidth="1"/>
-    <col min="18" max="19" width="18.75" style="2" customWidth="1"/>
-    <col min="20" max="16383" width="9" style="2"/>
+    <col min="17" max="17" width="62.25" style="2" customWidth="1"/>
+    <col min="18" max="20" width="9" style="2"/>
+    <col min="21" max="21" width="18.75" style="2" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="2" customWidth="1"/>
+    <col min="23" max="24" width="18.75" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="19:19">
-      <c r="S2" s="2" t="s">
+    <row r="2" ht="20.1" customHeight="1" spans="24:24">
+      <c r="X2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:19">
+    <row r="3" ht="20.1" customHeight="1" spans="3:24">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1499,1167 +1646,1452 @@
         <v>13</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>16</v>
+      <c r="V3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:19">
+    <row r="4" ht="20.1" customHeight="1" spans="3:24">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:19">
+    <row r="5" ht="20.1" customHeight="1" spans="3:24">
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
         <v>10001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="K6" s="4">
         <v>10001</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="L6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6" s="4">
         <v>10001</v>
       </c>
-      <c r="I6" s="4">
+      <c r="N6" s="4">
         <v>10</v>
       </c>
-      <c r="J6" s="4">
+      <c r="O6" s="4">
         <v>-1</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M6" s="4">
-        <v>2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
       <c r="P6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>1</v>
+        <v>49</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="R6" s="4">
+        <v>2</v>
+      </c>
+      <c r="S6" s="4">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V6" s="4">
+        <v>1</v>
+      </c>
+      <c r="W6" s="4">
         <v>60400501</v>
       </c>
-      <c r="S6" s="4">
+      <c r="X6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:19">
+    <row r="7" ht="20.1" customHeight="1" spans="3:24">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
         <v>10002</v>
       </c>
-      <c r="F7" s="4">
+      <c r="K7" s="4">
         <v>10002</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="L7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="4">
         <v>10002</v>
       </c>
-      <c r="I7" s="4">
+      <c r="N7" s="4">
         <v>8</v>
       </c>
-      <c r="J7" s="4">
+      <c r="O7" s="4">
         <v>-1</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" s="4">
-        <v>2</v>
-      </c>
-      <c r="N7" s="4">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
-        <v>0</v>
-      </c>
       <c r="P7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q7" s="4">
-        <v>2</v>
-      </c>
-      <c r="R7" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2</v>
+      </c>
       <c r="S7" s="4">
         <v>0</v>
       </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="4">
+        <v>2</v>
+      </c>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:19">
+    <row r="8" ht="20.1" customHeight="1" spans="3:24">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4">
         <v>10003</v>
       </c>
-      <c r="F8" s="4">
+      <c r="K8" s="4">
         <v>10003</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="L8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="4">
         <v>10008</v>
       </c>
-      <c r="I8" s="4">
+      <c r="N8" s="4">
         <v>10</v>
       </c>
-      <c r="J8" s="4">
+      <c r="O8" s="4">
         <v>-1</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="4">
-        <v>2</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0</v>
-      </c>
-      <c r="O8" s="4">
-        <v>0</v>
-      </c>
       <c r="P8" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>0</v>
-      </c>
-      <c r="R8" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="4">
+        <v>2</v>
+      </c>
       <c r="S8" s="4">
+        <v>0</v>
+      </c>
+      <c r="T8" s="4">
+        <v>0</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V8" s="4">
+        <v>0</v>
+      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:19">
+    <row r="9" ht="20.1" customHeight="1" spans="3:24">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
         <v>10004</v>
       </c>
-      <c r="F9" s="4">
+      <c r="K9" s="4">
         <v>10004</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="L9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="4">
         <v>10004</v>
       </c>
-      <c r="I9" s="4">
+      <c r="N9" s="4">
         <v>10</v>
       </c>
-      <c r="J9" s="4">
+      <c r="O9" s="4">
         <v>-1</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" s="4">
-        <v>2</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
-        <v>0</v>
-      </c>
       <c r="P9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q9" s="4">
+        <v>63</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="4">
+        <v>2</v>
+      </c>
+      <c r="S9" s="4">
+        <v>0</v>
+      </c>
+      <c r="T9" s="4">
+        <v>0</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" s="4">
         <v>4</v>
       </c>
-      <c r="R9" s="4">
+      <c r="W9" s="4">
         <v>64100001</v>
       </c>
-      <c r="S9" s="4">
+      <c r="X9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:19">
+    <row r="10" ht="20.1" customHeight="1" spans="3:24">
       <c r="C10" s="4">
         <v>10005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
         <v>10005</v>
       </c>
-      <c r="F10" s="4">
+      <c r="K10" s="4">
         <v>10005</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="L10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="4">
         <v>10016</v>
       </c>
-      <c r="I10" s="4">
+      <c r="N10" s="4">
         <v>10</v>
       </c>
-      <c r="J10" s="4">
+      <c r="O10" s="4">
         <v>-1</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="4">
-        <v>2</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
-        <v>0</v>
-      </c>
       <c r="P10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="4">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2</v>
+      </c>
+      <c r="S10" s="4">
+        <v>0</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" s="4">
         <v>5</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="4">
+      <c r="W10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:19">
+    <row r="11" ht="20.1" customHeight="1" spans="3:24">
       <c r="C11" s="4">
         <v>10006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
         <v>10006</v>
       </c>
-      <c r="F11" s="4">
+      <c r="K11" s="4">
         <v>10006</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="L11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="4">
+        <v>10005</v>
+      </c>
+      <c r="N11" s="4">
+        <v>20</v>
+      </c>
+      <c r="O11" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2</v>
+      </c>
+      <c r="S11" s="4">
+        <v>0</v>
+      </c>
+      <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="4">
-        <v>10005</v>
-      </c>
-      <c r="I11" s="4">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="4">
-        <v>2</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="4">
+      <c r="V11" s="4">
         <v>7</v>
       </c>
-      <c r="R11" s="4">
+      <c r="W11" s="4">
         <v>1004</v>
       </c>
-      <c r="S11" s="4">
+      <c r="X11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:19">
+    <row r="12" ht="20.1" customHeight="1" spans="3:24">
       <c r="C12" s="4">
         <v>10007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4">
         <v>10007</v>
       </c>
-      <c r="F12" s="4">
+      <c r="K12" s="4">
         <v>10007</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="L12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="4">
         <v>10006</v>
       </c>
-      <c r="I12" s="4">
+      <c r="N12" s="4">
         <v>11</v>
       </c>
-      <c r="J12" s="4">
+      <c r="O12" s="4">
         <v>-1</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="P12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="4">
+        <v>2</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="L12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="4">
-        <v>2</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="V12" s="4">
         <v>4</v>
       </c>
-      <c r="R12" s="4">
+      <c r="W12" s="4">
         <v>64100002</v>
       </c>
-      <c r="S12" s="4">
+      <c r="X12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:19">
+    <row r="13" ht="20.1" customHeight="1" spans="3:24">
       <c r="C13" s="4">
         <v>10008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
         <v>10008</v>
       </c>
-      <c r="F13" s="4">
+      <c r="K13" s="4">
         <v>10008</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="L13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M13" s="4">
         <v>10007</v>
       </c>
-      <c r="I13" s="4">
+      <c r="N13" s="4">
         <v>11</v>
       </c>
-      <c r="J13" s="4">
+      <c r="O13" s="4">
         <v>-1</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="4">
-        <v>2</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
       <c r="P13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="4">
+        <v>80</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2</v>
+      </c>
+      <c r="S13" s="4">
+        <v>0</v>
+      </c>
+      <c r="T13" s="4">
+        <v>0</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V13" s="4">
         <v>4</v>
       </c>
-      <c r="R13" s="4">
+      <c r="W13" s="4">
         <v>64100003</v>
       </c>
-      <c r="S13" s="4">
+      <c r="X13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:19">
+    <row r="14" ht="20.1" customHeight="1" spans="3:24">
       <c r="C14" s="4">
         <v>10009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
         <v>10009</v>
       </c>
-      <c r="F14" s="4">
+      <c r="K14" s="4">
         <v>10009</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="L14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M14" s="4">
         <v>10003</v>
       </c>
-      <c r="I14" s="4">
+      <c r="N14" s="4">
         <v>11</v>
       </c>
-      <c r="J14" s="4">
+      <c r="O14" s="4">
         <v>-1</v>
       </c>
-      <c r="K14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M14" s="4">
-        <v>2</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0</v>
-      </c>
-      <c r="O14" s="4">
-        <v>0</v>
-      </c>
       <c r="P14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q14" s="4">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="R14" s="4">
+        <v>2</v>
+      </c>
+      <c r="S14" s="4">
+        <v>0</v>
+      </c>
+      <c r="T14" s="4">
+        <v>0</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V14" s="4">
         <v>4</v>
       </c>
-      <c r="R14" s="4">
+      <c r="W14" s="4">
         <v>64100004</v>
       </c>
-      <c r="S14" s="4">
+      <c r="X14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:19">
+    <row r="15" ht="20.1" customHeight="1" spans="3:24">
       <c r="C15" s="4">
         <v>10010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
         <v>10010</v>
       </c>
-      <c r="F15" s="4">
+      <c r="K15" s="4">
         <v>10010</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="L15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="4">
         <v>10009</v>
       </c>
-      <c r="I15" s="4">
+      <c r="N15" s="4">
         <v>11</v>
       </c>
-      <c r="J15" s="4">
+      <c r="O15" s="4">
         <v>-1</v>
       </c>
-      <c r="K15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M15" s="4">
-        <v>2</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0</v>
-      </c>
-      <c r="O15" s="4">
-        <v>0</v>
-      </c>
       <c r="P15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q15" s="4">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+      <c r="T15" s="4">
+        <v>0</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V15" s="4">
         <v>4</v>
       </c>
-      <c r="R15" s="4">
+      <c r="W15" s="4">
         <v>64100005</v>
       </c>
-      <c r="S15" s="4">
+      <c r="X15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:19">
+    <row r="16" ht="20.1" customHeight="1" spans="3:24">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
         <v>10011</v>
       </c>
-      <c r="F16" s="4">
+      <c r="K16" s="4">
         <v>10011</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="L16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16" s="4">
         <v>10011</v>
       </c>
-      <c r="I16" s="4">
+      <c r="N16" s="4">
         <v>40</v>
       </c>
-      <c r="J16" s="4">
+      <c r="O16" s="4">
         <v>-1</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="4">
-        <v>2</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
       <c r="P16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" s="4">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="R16" s="4">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4">
+        <v>0</v>
+      </c>
+      <c r="T16" s="4">
+        <v>0</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V16" s="4">
         <v>4</v>
       </c>
-      <c r="R16" s="4">
+      <c r="W16" s="4">
         <v>64100006</v>
       </c>
-      <c r="S16" s="4">
+      <c r="X16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:19">
+    <row r="17" ht="20.1" customHeight="1" spans="3:24">
       <c r="C17" s="4">
         <v>10012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
         <v>10012</v>
       </c>
-      <c r="F17" s="4">
+      <c r="K17" s="4">
         <v>10012</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="L17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="4">
         <v>10013</v>
       </c>
-      <c r="I17" s="4">
+      <c r="N17" s="4">
         <v>11</v>
       </c>
-      <c r="J17" s="4">
+      <c r="O17" s="4">
         <v>-1</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M17" s="4">
-        <v>2</v>
-      </c>
-      <c r="N17" s="4">
-        <v>0</v>
-      </c>
-      <c r="O17" s="4">
-        <v>0</v>
-      </c>
       <c r="P17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q17" s="4">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="4">
+        <v>2</v>
+      </c>
+      <c r="S17" s="4">
+        <v>0</v>
+      </c>
+      <c r="T17" s="4">
+        <v>0</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V17" s="4">
         <v>6</v>
       </c>
-      <c r="R17" s="4">
+      <c r="W17" s="4">
         <v>60400502</v>
       </c>
-      <c r="S17" s="4">
+      <c r="X17" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:19">
+    <row r="18" ht="20.1" customHeight="1" spans="3:24">
       <c r="C18" s="4">
         <v>10013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
         <v>10013</v>
       </c>
-      <c r="F18" s="4">
+      <c r="K18" s="4">
         <v>10013</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="L18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M18" s="4">
         <v>10014</v>
       </c>
-      <c r="I18" s="4">
+      <c r="N18" s="4">
         <v>9</v>
       </c>
-      <c r="J18" s="4">
+      <c r="O18" s="4">
         <v>-1</v>
       </c>
-      <c r="K18" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" s="4">
-        <v>2</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
       <c r="P18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q18" s="4">
+        <v>101</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="R18" s="4">
+        <v>2</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V18" s="4">
         <v>7</v>
       </c>
-      <c r="R18" s="4">
+      <c r="W18" s="4">
         <v>1015</v>
       </c>
-      <c r="S18" s="4">
+      <c r="X18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:19">
+    <row r="19" ht="20.1" customHeight="1" spans="3:24">
       <c r="C19" s="4">
         <v>10014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" s="4">
         <v>10014</v>
       </c>
-      <c r="F19" s="4">
+      <c r="K19" s="4">
         <v>10014</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="L19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="4">
         <v>10015</v>
       </c>
-      <c r="I19" s="4">
+      <c r="N19" s="4">
         <v>10</v>
       </c>
-      <c r="J19" s="4">
+      <c r="O19" s="4">
         <v>-1</v>
       </c>
-      <c r="K19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M19" s="4">
-        <v>2</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
       <c r="P19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="4">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="4">
+        <v>2</v>
+      </c>
+      <c r="S19" s="4">
+        <v>0</v>
+      </c>
+      <c r="T19" s="4">
+        <v>0</v>
+      </c>
+      <c r="U19" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="V19" s="4">
         <v>4</v>
       </c>
-      <c r="R19" s="4">
+      <c r="W19" s="4">
         <v>64100007</v>
       </c>
-      <c r="S19" s="4">
+      <c r="X19" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:19">
+    <row r="20" ht="20.1" customHeight="1" spans="3:24">
       <c r="C20" s="4">
         <v>10015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="4">
         <v>10015</v>
       </c>
-      <c r="F20" s="4">
+      <c r="K20" s="4">
         <v>10015</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="L20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="4">
         <v>10015</v>
       </c>
-      <c r="I20" s="4">
+      <c r="N20" s="4">
         <v>10</v>
       </c>
-      <c r="J20" s="4">
+      <c r="O20" s="4">
         <v>-1</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" s="4">
-        <v>2</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
       <c r="P20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="4">
+        <v>107</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="R20" s="4">
+        <v>2</v>
+      </c>
+      <c r="S20" s="4">
+        <v>0</v>
+      </c>
+      <c r="T20" s="4">
+        <v>0</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="V20" s="4">
         <v>4</v>
       </c>
-      <c r="R20" s="4">
+      <c r="W20" s="4">
         <v>64100008</v>
       </c>
-      <c r="S20" s="4">
+      <c r="X20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:19">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
       <c r="C21" s="4">
         <v>20001</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="E21" s="4">
+        <v>2</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="4">
+        <v>100</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.017</v>
+      </c>
+      <c r="I21" s="4">
+        <v>3</v>
+      </c>
+      <c r="J21" s="4">
         <v>10001</v>
       </c>
-      <c r="F21" s="4">
+      <c r="K21" s="4">
         <v>10001</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="L21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M21" s="4">
         <v>10001</v>
       </c>
-      <c r="I21" s="4">
+      <c r="N21" s="4">
         <v>10</v>
       </c>
-      <c r="J21" s="4">
+      <c r="O21" s="4">
         <v>-1</v>
       </c>
-      <c r="K21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="4">
-        <v>2</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
       <c r="P21" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="4">
+        <v>2</v>
+      </c>
       <c r="S21" s="4">
         <v>0</v>
       </c>
+      <c r="T21" s="4">
+        <v>0</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:19">
+    <row r="22" ht="20.1" customHeight="1" spans="3:24">
       <c r="C22" s="4">
         <v>20002</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E22" s="4">
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <v>310102</v>
+      </c>
+      <c r="G22" s="4">
+        <v>200</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I22" s="4">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4">
         <v>10002</v>
       </c>
-      <c r="F22" s="4">
+      <c r="K22" s="4">
         <v>10002</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="L22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M22" s="4">
         <v>10002</v>
       </c>
-      <c r="I22" s="4">
+      <c r="N22" s="4">
         <v>8</v>
       </c>
-      <c r="J22" s="4">
+      <c r="O22" s="4">
         <v>-1</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M22" s="4">
-        <v>2</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
-        <v>0</v>
-      </c>
       <c r="P22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" s="4">
-        <v>0</v>
-      </c>
-      <c r="R22" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R22" s="4">
+        <v>2</v>
+      </c>
       <c r="S22" s="4">
         <v>0</v>
       </c>
+      <c r="T22" s="4">
+        <v>0</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V22" s="4">
+        <v>0</v>
+      </c>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:19">
+    <row r="23" ht="20.1" customHeight="1" spans="3:24">
       <c r="C23" s="4">
         <v>20003</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G23" s="4">
+        <v>300</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="I23" s="4">
+        <v>3</v>
+      </c>
+      <c r="J23" s="4">
         <v>10003</v>
       </c>
-      <c r="F23" s="4">
+      <c r="K23" s="4">
         <v>10003</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="L23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="4">
         <v>10008</v>
       </c>
-      <c r="I23" s="4">
+      <c r="N23" s="4">
         <v>10</v>
       </c>
-      <c r="J23" s="4">
+      <c r="O23" s="4">
         <v>-1</v>
       </c>
-      <c r="K23" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M23" s="4">
-        <v>2</v>
-      </c>
-      <c r="N23" s="4">
-        <v>0</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
-      </c>
       <c r="P23" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q23" s="4">
-        <v>0</v>
-      </c>
-      <c r="R23" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="4">
+        <v>2</v>
+      </c>
       <c r="S23" s="4">
         <v>0</v>
       </c>
+      <c r="T23" s="4">
+        <v>0</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V23" s="4">
+        <v>0</v>
+      </c>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:19">
+    <row r="24" ht="20.1" customHeight="1" spans="3:24">
       <c r="C24" s="4">
         <v>20004</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>310161</v>
+      </c>
+      <c r="G24" s="4">
+        <v>400</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
         <v>10004</v>
       </c>
-      <c r="F24" s="4">
+      <c r="K24" s="4">
         <v>10004</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="L24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M24" s="4">
         <v>10004</v>
       </c>
-      <c r="I24" s="4">
+      <c r="N24" s="4">
         <v>10</v>
       </c>
-      <c r="J24" s="4">
+      <c r="O24" s="4">
         <v>-1</v>
       </c>
-      <c r="K24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M24" s="4">
-        <v>2</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
       <c r="P24" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q24" s="4">
-        <v>0</v>
-      </c>
-      <c r="R24" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" s="4">
+        <v>2</v>
+      </c>
       <c r="S24" s="4">
         <v>0</v>
       </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:19">
+    <row r="25" ht="20.1" customHeight="1" spans="3:24">
       <c r="C25" s="4">
         <v>20005</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E25" s="4">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4">
+        <v>310165</v>
+      </c>
+      <c r="G25" s="4">
+        <v>500</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4">
         <v>10005</v>
       </c>
-      <c r="F25" s="4">
+      <c r="K25" s="4">
         <v>10005</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="L25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="4">
         <v>10016</v>
       </c>
-      <c r="I25" s="4">
+      <c r="N25" s="4">
         <v>10</v>
       </c>
-      <c r="J25" s="4">
+      <c r="O25" s="4">
         <v>-1</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M25" s="4">
-        <v>2</v>
-      </c>
-      <c r="N25" s="4">
-        <v>0</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
-      </c>
       <c r="P25" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q25" s="4">
-        <v>0</v>
-      </c>
-      <c r="R25" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="R25" s="4">
+        <v>2</v>
+      </c>
       <c r="S25" s="4">
+        <v>0</v>
+      </c>
+      <c r="T25" s="4">
+        <v>0</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="V25" s="4">
+        <v>0</v>
+      </c>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/JingLingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/JingLingConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="1">
+    <comment ref="W3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="121">
   <si>
     <t>c</t>
   </si>
@@ -221,6 +221,9 @@
     <t>有效期(秒)</t>
   </si>
   <si>
+    <t>境界</t>
+  </si>
+  <si>
     <t>属性描述</t>
   </si>
   <si>
@@ -281,6 +284,9 @@
     <t>ValidityTime</t>
   </si>
   <si>
+    <t>Lv</t>
+  </si>
+  <si>
     <t>ProDes</t>
   </si>
   <si>
@@ -326,6 +332,9 @@
     <t>100403;50</t>
   </si>
   <si>
+    <t>大师界</t>
+  </si>
+  <si>
     <t>攻击提升50点</t>
   </si>
   <si>
@@ -510,6 +519,9 @@
   </si>
   <si>
     <t>310101,310102</t>
+  </si>
+  <si>
+    <t>宗师界</t>
   </si>
   <si>
     <t>击杀一定怪物激活</t>
@@ -1569,10 +1581,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:X28"/>
+  <dimension ref="C1:Y28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1589,23 +1601,23 @@
     <col min="12" max="12" width="23.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="13.125" style="2" customWidth="1"/>
     <col min="14" max="14" width="15.5" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="18.75" style="2" customWidth="1"/>
-    <col min="17" max="17" width="62.25" style="2" customWidth="1"/>
-    <col min="18" max="20" width="9" style="2"/>
-    <col min="21" max="21" width="18.75" style="2" customWidth="1"/>
-    <col min="22" max="22" width="15.5" style="2" customWidth="1"/>
-    <col min="23" max="24" width="18.75" style="2" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="2"/>
+    <col min="15" max="16" width="11.5" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.75" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.25" style="2" customWidth="1"/>
+    <col min="19" max="21" width="9" style="2"/>
+    <col min="22" max="22" width="18.75" style="2" customWidth="1"/>
+    <col min="23" max="23" width="15.5" style="2" customWidth="1"/>
+    <col min="24" max="25" width="18.75" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="24:24">
-      <c r="X2" s="2" t="s">
+    <row r="2" ht="20.1" customHeight="1" spans="25:25">
+      <c r="Y2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:24">
+    <row r="3" ht="20.1" customHeight="1" spans="3:25">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1661,10 +1673,10 @@
         <v>18</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>20</v>
@@ -1672,149 +1684,158 @@
       <c r="X3" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="Y3" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:24">
+    <row r="4" ht="20.1" customHeight="1" spans="3:25">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:24">
+    <row r="5" ht="20.1" customHeight="1" spans="3:25">
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="L5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>46</v>
       </c>
       <c r="S5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="W5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>43</v>
+      <c r="Y5" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:25">
       <c r="C6" s="4">
         <v>10001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="4">
         <v>1</v>
@@ -1834,7 +1855,7 @@
         <v>10001</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M6" s="4">
         <v>10001</v>
@@ -1846,39 +1867,42 @@
         <v>-1</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R6" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="S6" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" s="4">
         <v>0</v>
       </c>
-      <c r="U6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="V6" s="4">
-        <v>1</v>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="W6" s="4">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4">
         <v>60400501</v>
       </c>
-      <c r="X6" s="4">
+      <c r="Y6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="20.1" customHeight="1" spans="3:24">
+    <row r="7" ht="20.1" customHeight="1" spans="3:25">
       <c r="C7" s="4">
         <v>10002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E7" s="4">
         <v>1</v>
@@ -1898,7 +1922,7 @@
         <v>10002</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M7" s="4">
         <v>10002</v>
@@ -1910,37 +1934,40 @@
         <v>-1</v>
       </c>
       <c r="P7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2</v>
+      </c>
+      <c r="T7" s="4">
+        <v>0</v>
+      </c>
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" s="4">
-        <v>2</v>
-      </c>
-      <c r="S7" s="4">
-        <v>0</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="V7" s="4">
-        <v>2</v>
-      </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4">
+      <c r="W7" s="4">
+        <v>2</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="20.1" customHeight="1" spans="3:24">
+    <row r="8" ht="20.1" customHeight="1" spans="3:25">
       <c r="C8" s="4">
         <v>10003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4">
         <v>1</v>
@@ -1960,7 +1987,7 @@
         <v>10003</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M8" s="4">
         <v>10008</v>
@@ -1972,37 +1999,40 @@
         <v>-1</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R8" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="S8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T8" s="4">
         <v>0</v>
       </c>
-      <c r="U8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V8" s="4">
-        <v>0</v>
-      </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4">
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" s="4">
+        <v>0</v>
+      </c>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="20.1" customHeight="1" spans="3:24">
+    <row r="9" ht="20.1" customHeight="1" spans="3:25">
       <c r="C9" s="4">
         <v>10004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
@@ -2022,7 +2052,7 @@
         <v>10004</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M9" s="4">
         <v>10004</v>
@@ -2034,39 +2064,42 @@
         <v>-1</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="S9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" s="4">
         <v>0</v>
       </c>
-      <c r="U9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V9" s="4">
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W9" s="4">
         <v>4</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="4">
         <v>64100001</v>
       </c>
-      <c r="X9" s="4">
+      <c r="Y9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="20.1" customHeight="1" spans="3:24">
+    <row r="10" ht="20.1" customHeight="1" spans="3:25">
       <c r="C10" s="4">
         <v>10005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -2086,7 +2119,7 @@
         <v>10005</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M10" s="4">
         <v>10016</v>
@@ -2098,39 +2131,42 @@
         <v>-1</v>
       </c>
       <c r="P10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0</v>
+      </c>
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Q10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="4">
-        <v>2</v>
-      </c>
-      <c r="S10" s="4">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V10" s="4">
+      <c r="W10" s="4">
         <v>5</v>
       </c>
-      <c r="W10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="X10" s="4">
+      <c r="X10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="20.1" customHeight="1" spans="3:24">
+    <row r="11" ht="20.1" customHeight="1" spans="3:25">
       <c r="C11" s="4">
         <v>10006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -2150,7 +2186,7 @@
         <v>10006</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M11" s="4">
         <v>10005</v>
@@ -2162,39 +2198,42 @@
         <v>-1</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="R11" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="S11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" s="4">
         <v>0</v>
       </c>
-      <c r="U11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" s="4">
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W11" s="4">
         <v>7</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <v>1004</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="20.1" customHeight="1" spans="3:24">
+    <row r="12" ht="20.1" customHeight="1" spans="3:25">
       <c r="C12" s="4">
         <v>10007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -2214,7 +2253,7 @@
         <v>10007</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M12" s="4">
         <v>10006</v>
@@ -2226,39 +2265,42 @@
         <v>-1</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="S12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" s="4">
         <v>0</v>
       </c>
-      <c r="U12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V12" s="4">
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W12" s="4">
         <v>4</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="4">
         <v>64100002</v>
       </c>
-      <c r="X12" s="4">
+      <c r="Y12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="20.1" customHeight="1" spans="3:24">
+    <row r="13" ht="20.1" customHeight="1" spans="3:25">
       <c r="C13" s="4">
         <v>10008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -2278,7 +2320,7 @@
         <v>10008</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M13" s="4">
         <v>10007</v>
@@ -2290,39 +2332,42 @@
         <v>-1</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="R13" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="S13" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" s="4">
         <v>0</v>
       </c>
-      <c r="U13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V13" s="4">
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W13" s="4">
         <v>4</v>
       </c>
-      <c r="W13" s="4">
+      <c r="X13" s="4">
         <v>64100003</v>
       </c>
-      <c r="X13" s="4">
+      <c r="Y13" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="20.1" customHeight="1" spans="3:24">
+    <row r="14" ht="20.1" customHeight="1" spans="3:25">
       <c r="C14" s="4">
         <v>10009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2342,7 +2387,7 @@
         <v>10009</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M14" s="4">
         <v>10003</v>
@@ -2354,39 +2399,42 @@
         <v>-1</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R14" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="S14" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T14" s="4">
         <v>0</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="V14" s="4">
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="4">
         <v>4</v>
       </c>
-      <c r="W14" s="4">
+      <c r="X14" s="4">
         <v>64100004</v>
       </c>
-      <c r="X14" s="4">
+      <c r="Y14" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="20.1" customHeight="1" spans="3:24">
+    <row r="15" ht="20.1" customHeight="1" spans="3:25">
       <c r="C15" s="4">
         <v>10010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -2406,7 +2454,7 @@
         <v>10010</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M15" s="4">
         <v>10009</v>
@@ -2418,39 +2466,42 @@
         <v>-1</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="S15" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T15" s="4">
         <v>0</v>
       </c>
-      <c r="U15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V15" s="4">
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" s="4">
         <v>4</v>
       </c>
-      <c r="W15" s="4">
+      <c r="X15" s="4">
         <v>64100005</v>
       </c>
-      <c r="X15" s="4">
+      <c r="Y15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="20.1" customHeight="1" spans="3:24">
+    <row r="16" ht="20.1" customHeight="1" spans="3:25">
       <c r="C16" s="4">
         <v>10011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2470,7 +2521,7 @@
         <v>10011</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M16" s="4">
         <v>10011</v>
@@ -2482,39 +2533,42 @@
         <v>-1</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="R16" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="S16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" s="4">
         <v>0</v>
       </c>
-      <c r="U16" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V16" s="4">
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W16" s="4">
         <v>4</v>
       </c>
-      <c r="W16" s="4">
+      <c r="X16" s="4">
         <v>64100006</v>
       </c>
-      <c r="X16" s="4">
+      <c r="Y16" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="20.1" customHeight="1" spans="3:24">
+    <row r="17" ht="20.1" customHeight="1" spans="3:25">
       <c r="C17" s="4">
         <v>10012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
@@ -2534,7 +2588,7 @@
         <v>10012</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M17" s="4">
         <v>10013</v>
@@ -2546,39 +2600,42 @@
         <v>-1</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="R17" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="S17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" s="4">
         <v>0</v>
       </c>
-      <c r="U17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V17" s="4">
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W17" s="4">
         <v>6</v>
       </c>
-      <c r="W17" s="4">
+      <c r="X17" s="4">
         <v>60400502</v>
       </c>
-      <c r="X17" s="4">
+      <c r="Y17" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="20.1" customHeight="1" spans="3:24">
+    <row r="18" ht="20.1" customHeight="1" spans="3:25">
       <c r="C18" s="4">
         <v>10013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -2598,7 +2655,7 @@
         <v>10013</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M18" s="4">
         <v>10014</v>
@@ -2610,39 +2667,42 @@
         <v>-1</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="R18" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="S18" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T18" s="4">
         <v>0</v>
       </c>
-      <c r="U18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V18" s="4">
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="W18" s="4">
         <v>7</v>
       </c>
-      <c r="W18" s="4">
+      <c r="X18" s="4">
         <v>1015</v>
       </c>
-      <c r="X18" s="4">
+      <c r="Y18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="20.1" customHeight="1" spans="3:24">
+    <row r="19" ht="20.1" customHeight="1" spans="3:25">
       <c r="C19" s="4">
         <v>10014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2662,7 +2722,7 @@
         <v>10014</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M19" s="4">
         <v>10015</v>
@@ -2674,39 +2734,42 @@
         <v>-1</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="R19" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="S19" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T19" s="4">
         <v>0</v>
       </c>
-      <c r="U19" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="V19" s="4">
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="W19" s="4">
         <v>4</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="4">
         <v>64100007</v>
       </c>
-      <c r="X19" s="4">
+      <c r="Y19" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="20.1" customHeight="1" spans="3:24">
+    <row r="20" ht="20.1" customHeight="1" spans="3:25">
       <c r="C20" s="4">
         <v>10015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2726,7 +2789,7 @@
         <v>10015</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M20" s="4">
         <v>10015</v>
@@ -2738,45 +2801,48 @@
         <v>-1</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="R20" s="4">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="S20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20" s="4">
         <v>0</v>
       </c>
-      <c r="U20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="V20" s="4">
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="W20" s="4">
         <v>4</v>
       </c>
-      <c r="W20" s="4">
+      <c r="X20" s="4">
         <v>64100008</v>
       </c>
-      <c r="X20" s="4">
+      <c r="Y20" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:24">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:25">
       <c r="C21" s="4">
         <v>20001</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G21" s="4">
         <v>100</v>
@@ -2794,7 +2860,7 @@
         <v>10001</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M21" s="4">
         <v>10001</v>
@@ -2806,37 +2872,40 @@
         <v>-1</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R21" s="4">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="S21" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T21" s="4">
         <v>0</v>
       </c>
-      <c r="U21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4">
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="20.1" customHeight="1" spans="3:24">
+    <row r="22" ht="20.1" customHeight="1" spans="3:25">
       <c r="C22" s="4">
         <v>20002</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -2860,7 +2929,7 @@
         <v>10002</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M22" s="4">
         <v>10002</v>
@@ -2872,43 +2941,46 @@
         <v>-1</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R22" s="4">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="S22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T22" s="4">
         <v>0</v>
       </c>
-      <c r="U22" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V22" s="4">
-        <v>0</v>
-      </c>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4">
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W22" s="4">
+        <v>0</v>
+      </c>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="20.1" customHeight="1" spans="3:24">
+    <row r="23" ht="20.1" customHeight="1" spans="3:25">
       <c r="C23" s="4">
         <v>20003</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G23" s="4">
         <v>300</v>
@@ -2926,7 +2998,7 @@
         <v>10003</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M23" s="4">
         <v>10008</v>
@@ -2938,37 +3010,40 @@
         <v>-1</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R23" s="4">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="S23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" s="4">
         <v>0</v>
       </c>
-      <c r="U23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V23" s="4">
-        <v>0</v>
-      </c>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4">
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W23" s="4">
+        <v>0</v>
+      </c>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="20.1" customHeight="1" spans="3:24">
+    <row r="24" ht="20.1" customHeight="1" spans="3:25">
       <c r="C24" s="4">
         <v>20004</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -2992,7 +3067,7 @@
         <v>10004</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M24" s="4">
         <v>10004</v>
@@ -3004,37 +3079,40 @@
         <v>-1</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="R24" s="4">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="S24" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T24" s="4">
         <v>0</v>
       </c>
-      <c r="U24" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0</v>
-      </c>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4">
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W24" s="4">
+        <v>0</v>
+      </c>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="20.1" customHeight="1" spans="3:24">
+    <row r="25" ht="20.1" customHeight="1" spans="3:25">
       <c r="C25" s="4">
         <v>20005</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
@@ -3058,7 +3136,7 @@
         <v>10005</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M25" s="4">
         <v>10016</v>
@@ -3070,28 +3148,31 @@
         <v>-1</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="R25" s="4">
-        <v>2</v>
+        <v>114</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R25" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="S25" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T25" s="4">
         <v>0</v>
       </c>
-      <c r="U25" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="V25" s="4">
-        <v>0</v>
-      </c>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4">
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="W25" s="4">
+        <v>0</v>
+      </c>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/JingLingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/JingLingConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A917E7F-5446-409D-A0C0-8C782B59B9F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC1A9BA-0EE7-490C-9C11-38DB21413055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,6 +33,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -41,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,6 +59,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -65,6 +68,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -82,6 +86,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -90,6 +95,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -105,6 +111,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>1.每天随机给东西   参数:掉落ID
@@ -124,6 +131,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -132,11 +140,12 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1  道具激活
-2  击杀怪物</t>
+1  道具激活（奇遇）
+2  击杀怪物（精灵）</t>
         </r>
       </text>
     </comment>
@@ -147,6 +156,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -155,6 +165,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -170,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="140">
   <si>
     <t>c</t>
   </si>
@@ -397,12 +408,6 @@
     <t>物防提升100点</t>
   </si>
   <si>
-    <t>200103;0.05</t>
-  </si>
-  <si>
-    <t>暴击概率+5%</t>
-  </si>
-  <si>
     <t>史莱姆</t>
   </si>
   <si>
@@ -440,12 +445,6 @@
   </si>
   <si>
     <t>漠灵风暴之王</t>
-  </si>
-  <si>
-    <t>基地_红方</t>
-  </si>
-  <si>
-    <t>基地_蓝方</t>
   </si>
   <si>
     <t>绿洲龟</t>
@@ -598,6 +597,14 @@
   </si>
   <si>
     <t>击败怪物有一定怪物激活</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200103;0.01</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -617,6 +624,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -624,12 +632,14 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -637,11 +647,13 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1064,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Y112"/>
+  <dimension ref="C1:Y110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H67"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1318,7 +1330,7 @@
         <v>10001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="6">
         <v>2</v>
@@ -1354,7 +1366,7 @@
         <v>-1</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>50</v>
@@ -1369,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W6" s="1">
         <v>0</v>
@@ -1383,7 +1395,7 @@
         <v>10002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
@@ -1419,7 +1431,7 @@
         <v>-1</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>52</v>
@@ -1434,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W7" s="1">
         <v>0</v>
@@ -1448,7 +1460,7 @@
         <v>10003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="6">
         <v>2</v>
@@ -1484,7 +1496,7 @@
         <v>-1</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>54</v>
@@ -1499,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
@@ -1513,7 +1525,7 @@
         <v>10004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
@@ -1549,7 +1561,7 @@
         <v>-1</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>56</v>
@@ -1564,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W9" s="1">
         <v>0</v>
@@ -1578,7 +1590,7 @@
         <v>10005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="6">
         <v>2</v>
@@ -1614,7 +1626,7 @@
         <v>-1</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>58</v>
@@ -1629,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W10" s="1">
         <v>0</v>
@@ -1643,7 +1655,7 @@
         <v>10006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="6">
         <v>2</v>
@@ -1679,7 +1691,7 @@
         <v>-1</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>60</v>
@@ -1694,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W11" s="1">
         <v>0</v>
@@ -1708,7 +1720,7 @@
         <v>10007</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" s="6">
         <v>2</v>
@@ -1744,7 +1756,7 @@
         <v>-1</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>62</v>
@@ -1759,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W12" s="1">
         <v>0</v>
@@ -1773,7 +1785,7 @@
         <v>10008</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E13" s="6">
         <v>2</v>
@@ -1809,7 +1821,7 @@
         <v>-1</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>64</v>
@@ -1824,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W13" s="1">
         <v>0</v>
@@ -1838,7 +1850,7 @@
         <v>10009</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6">
         <v>2</v>
@@ -1874,7 +1886,7 @@
         <v>-1</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>66</v>
@@ -1889,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W14" s="1">
         <v>0</v>
@@ -1903,7 +1915,7 @@
         <v>10010</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E15" s="6">
         <v>2</v>
@@ -1939,7 +1951,7 @@
         <v>-1</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>68</v>
@@ -1954,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W15" s="1">
         <v>0</v>
@@ -1968,7 +1980,7 @@
         <v>10011</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="6">
         <v>2</v>
@@ -2004,7 +2016,7 @@
         <v>-1</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="4" t="s">
         <v>70</v>
@@ -2019,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W16" s="1">
         <v>0</v>
@@ -2033,7 +2045,7 @@
         <v>10012</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E17" s="6">
         <v>2</v>
@@ -2069,7 +2081,7 @@
         <v>-1</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>72</v>
@@ -2084,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W17" s="1">
         <v>0</v>
@@ -2098,7 +2110,7 @@
         <v>10013</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" s="6">
         <v>2</v>
@@ -2134,7 +2146,7 @@
         <v>-1</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q18" s="4" t="s">
         <v>74</v>
@@ -2149,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W18" s="1">
         <v>0</v>
@@ -2163,13 +2175,13 @@
         <v>10014</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E19" s="6">
         <v>2</v>
       </c>
       <c r="F19" s="6">
-        <v>310180</v>
+        <v>320101</v>
       </c>
       <c r="G19" s="1">
         <v>1000</v>
@@ -2181,13 +2193,13 @@
         <v>1</v>
       </c>
       <c r="J19" s="6">
-        <v>70001004</v>
+        <v>320101</v>
       </c>
       <c r="K19" s="6">
-        <v>70001004</v>
+        <v>320101</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
@@ -2199,10 +2211,10 @@
         <v>-1</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="S19" s="1">
         <v>2</v>
@@ -2214,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="V19" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W19" s="1">
         <v>0</v>
@@ -2228,13 +2240,13 @@
         <v>10015</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E20" s="6">
         <v>2</v>
       </c>
       <c r="F20" s="6">
-        <v>310181</v>
+        <v>320102</v>
       </c>
       <c r="G20" s="1">
         <v>1000</v>
@@ -2246,13 +2258,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="6">
-        <v>70001004</v>
+        <v>320102</v>
       </c>
       <c r="K20" s="6">
-        <v>70001004</v>
+        <v>320102</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
@@ -2264,10 +2276,10 @@
         <v>-1</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="S20" s="1">
         <v>2</v>
@@ -2279,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W20" s="1">
         <v>0</v>
@@ -2293,13 +2305,13 @@
         <v>10016</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="6">
         <v>2</v>
       </c>
       <c r="F21" s="6">
-        <v>320101</v>
+        <v>320103</v>
       </c>
       <c r="G21" s="1">
         <v>1000</v>
@@ -2311,13 +2323,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="6">
-        <v>320101</v>
+        <v>320103</v>
       </c>
       <c r="K21" s="6">
-        <v>320101</v>
+        <v>320103</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
@@ -2329,10 +2341,10 @@
         <v>-1</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S21" s="1">
         <v>2</v>
@@ -2344,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W21" s="1">
         <v>0</v>
@@ -2358,13 +2370,13 @@
         <v>10017</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
       </c>
       <c r="F22" s="6">
-        <v>320102</v>
+        <v>320104</v>
       </c>
       <c r="G22" s="1">
         <v>1000</v>
@@ -2376,13 +2388,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="6">
-        <v>320102</v>
+        <v>320104</v>
       </c>
       <c r="K22" s="6">
-        <v>320102</v>
+        <v>320104</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M22" s="4">
         <v>0</v>
@@ -2394,10 +2406,10 @@
         <v>-1</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S22" s="1">
         <v>2</v>
@@ -2409,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W22" s="1">
         <v>0</v>
@@ -2423,13 +2435,13 @@
         <v>10018</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E23" s="6">
         <v>2</v>
       </c>
       <c r="F23" s="6">
-        <v>320103</v>
+        <v>320105</v>
       </c>
       <c r="G23" s="1">
         <v>1000</v>
@@ -2441,13 +2453,13 @@
         <v>1</v>
       </c>
       <c r="J23" s="6">
-        <v>320103</v>
+        <v>320105</v>
       </c>
       <c r="K23" s="6">
-        <v>320103</v>
+        <v>320105</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M23" s="4">
         <v>0</v>
@@ -2459,10 +2471,10 @@
         <v>-1</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S23" s="1">
         <v>2</v>
@@ -2474,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W23" s="1">
         <v>0</v>
@@ -2488,13 +2500,13 @@
         <v>10019</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E24" s="6">
         <v>2</v>
       </c>
       <c r="F24" s="6">
-        <v>320104</v>
+        <v>320106</v>
       </c>
       <c r="G24" s="1">
         <v>1000</v>
@@ -2506,13 +2518,13 @@
         <v>1</v>
       </c>
       <c r="J24" s="6">
-        <v>320104</v>
+        <v>320106</v>
       </c>
       <c r="K24" s="6">
-        <v>320104</v>
+        <v>320106</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M24" s="4">
         <v>0</v>
@@ -2524,10 +2536,10 @@
         <v>-1</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="S24" s="1">
         <v>2</v>
@@ -2539,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W24" s="1">
         <v>0</v>
@@ -2553,13 +2565,13 @@
         <v>10020</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E25" s="6">
         <v>2</v>
       </c>
       <c r="F25" s="6">
-        <v>320105</v>
+        <v>320107</v>
       </c>
       <c r="G25" s="1">
         <v>1000</v>
@@ -2571,13 +2583,13 @@
         <v>1</v>
       </c>
       <c r="J25" s="6">
-        <v>320105</v>
+        <v>320107</v>
       </c>
       <c r="K25" s="6">
-        <v>320105</v>
+        <v>320107</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M25" s="4">
         <v>0</v>
@@ -2589,10 +2601,10 @@
         <v>-1</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="S25" s="1">
         <v>2</v>
@@ -2604,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W25" s="1">
         <v>0</v>
@@ -2618,13 +2630,13 @@
         <v>10021</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E26" s="6">
         <v>2</v>
       </c>
       <c r="F26" s="6">
-        <v>320106</v>
+        <v>320161</v>
       </c>
       <c r="G26" s="1">
         <v>1000</v>
@@ -2633,16 +2645,16 @@
         <v>0.01</v>
       </c>
       <c r="I26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="6">
-        <v>320106</v>
+        <v>320161</v>
       </c>
       <c r="K26" s="6">
-        <v>320106</v>
+        <v>320161</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M26" s="4">
         <v>0</v>
@@ -2654,10 +2666,10 @@
         <v>-1</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S26" s="1">
         <v>2</v>
@@ -2669,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W26" s="1">
         <v>0</v>
@@ -2683,13 +2695,13 @@
         <v>10022</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E27" s="6">
         <v>2</v>
       </c>
       <c r="F27" s="6">
-        <v>320107</v>
+        <v>320162</v>
       </c>
       <c r="G27" s="1">
         <v>1000</v>
@@ -2698,16 +2710,16 @@
         <v>0.01</v>
       </c>
       <c r="I27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" s="6">
-        <v>320107</v>
+        <v>320162</v>
       </c>
       <c r="K27" s="6">
-        <v>320107</v>
+        <v>320162</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M27" s="4">
         <v>0</v>
@@ -2719,10 +2731,10 @@
         <v>-1</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S27" s="1">
         <v>2</v>
@@ -2734,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W27" s="1">
         <v>0</v>
@@ -2748,13 +2760,13 @@
         <v>10023</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E28" s="6">
         <v>2</v>
       </c>
       <c r="F28" s="6">
-        <v>320161</v>
+        <v>320163</v>
       </c>
       <c r="G28" s="1">
         <v>1000</v>
@@ -2766,13 +2778,13 @@
         <v>2</v>
       </c>
       <c r="J28" s="6">
-        <v>320161</v>
+        <v>320163</v>
       </c>
       <c r="K28" s="6">
-        <v>320161</v>
+        <v>320163</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M28" s="4">
         <v>0</v>
@@ -2784,10 +2796,10 @@
         <v>-1</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S28" s="1">
         <v>2</v>
@@ -2799,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W28" s="1">
         <v>0</v>
@@ -2813,13 +2825,13 @@
         <v>10024</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E29" s="6">
         <v>2</v>
       </c>
       <c r="F29" s="6">
-        <v>320162</v>
+        <v>320164</v>
       </c>
       <c r="G29" s="1">
         <v>1000</v>
@@ -2831,13 +2843,13 @@
         <v>2</v>
       </c>
       <c r="J29" s="6">
-        <v>320162</v>
+        <v>320164</v>
       </c>
       <c r="K29" s="6">
-        <v>320162</v>
+        <v>320164</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M29" s="4">
         <v>0</v>
@@ -2849,10 +2861,10 @@
         <v>-1</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S29" s="1">
         <v>2</v>
@@ -2864,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W29" s="1">
         <v>0</v>
@@ -2878,13 +2890,13 @@
         <v>10025</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E30" s="6">
         <v>2</v>
       </c>
       <c r="F30" s="6">
-        <v>320163</v>
+        <v>320165</v>
       </c>
       <c r="G30" s="1">
         <v>1000</v>
@@ -2896,13 +2908,13 @@
         <v>2</v>
       </c>
       <c r="J30" s="6">
-        <v>320163</v>
+        <v>320165</v>
       </c>
       <c r="K30" s="6">
-        <v>320163</v>
+        <v>320165</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M30" s="4">
         <v>0</v>
@@ -2914,10 +2926,10 @@
         <v>-1</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S30" s="1">
         <v>2</v>
@@ -2929,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W30" s="1">
         <v>0</v>
@@ -2943,13 +2955,13 @@
         <v>10026</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E31" s="6">
         <v>2</v>
       </c>
       <c r="F31" s="6">
-        <v>320164</v>
+        <v>330101</v>
       </c>
       <c r="G31" s="1">
         <v>1000</v>
@@ -2958,16 +2970,16 @@
         <v>0.01</v>
       </c>
       <c r="I31" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="6">
-        <v>320164</v>
+        <v>330101</v>
       </c>
       <c r="K31" s="6">
-        <v>320164</v>
+        <v>330101</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M31" s="4">
         <v>0</v>
@@ -2979,10 +2991,10 @@
         <v>-1</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S31" s="1">
         <v>2</v>
@@ -2994,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W31" s="1">
         <v>0</v>
@@ -3008,13 +3020,13 @@
         <v>10027</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" s="6">
         <v>2</v>
       </c>
       <c r="F32" s="6">
-        <v>320165</v>
+        <v>330102</v>
       </c>
       <c r="G32" s="1">
         <v>1000</v>
@@ -3023,16 +3035,16 @@
         <v>0.01</v>
       </c>
       <c r="I32" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="6">
-        <v>320165</v>
+        <v>330102</v>
       </c>
       <c r="K32" s="6">
-        <v>320165</v>
+        <v>330102</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M32" s="4">
         <v>0</v>
@@ -3044,10 +3056,10 @@
         <v>-1</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S32" s="1">
         <v>2</v>
@@ -3059,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W32" s="1">
         <v>0</v>
@@ -3073,13 +3085,13 @@
         <v>10028</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E33" s="6">
         <v>2</v>
       </c>
       <c r="F33" s="6">
-        <v>330101</v>
+        <v>330103</v>
       </c>
       <c r="G33" s="1">
         <v>1000</v>
@@ -3091,13 +3103,13 @@
         <v>1</v>
       </c>
       <c r="J33" s="6">
-        <v>330101</v>
+        <v>330103</v>
       </c>
       <c r="K33" s="6">
-        <v>330101</v>
+        <v>330103</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M33" s="4">
         <v>0</v>
@@ -3109,10 +3121,10 @@
         <v>-1</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S33" s="1">
         <v>2</v>
@@ -3124,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W33" s="1">
         <v>0</v>
@@ -3138,13 +3150,13 @@
         <v>10029</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E34" s="6">
         <v>2</v>
       </c>
       <c r="F34" s="6">
-        <v>330102</v>
+        <v>330104</v>
       </c>
       <c r="G34" s="1">
         <v>1000</v>
@@ -3156,13 +3168,13 @@
         <v>1</v>
       </c>
       <c r="J34" s="6">
-        <v>330102</v>
+        <v>330104</v>
       </c>
       <c r="K34" s="6">
-        <v>330102</v>
+        <v>330104</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M34" s="4">
         <v>0</v>
@@ -3174,10 +3186,10 @@
         <v>-1</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S34" s="1">
         <v>2</v>
@@ -3189,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W34" s="1">
         <v>0</v>
@@ -3203,13 +3215,13 @@
         <v>10030</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E35" s="6">
         <v>2</v>
       </c>
       <c r="F35" s="6">
-        <v>330103</v>
+        <v>330105</v>
       </c>
       <c r="G35" s="1">
         <v>1000</v>
@@ -3221,13 +3233,13 @@
         <v>1</v>
       </c>
       <c r="J35" s="6">
-        <v>330103</v>
+        <v>330105</v>
       </c>
       <c r="K35" s="6">
-        <v>330103</v>
+        <v>330105</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M35" s="4">
         <v>0</v>
@@ -3239,10 +3251,10 @@
         <v>-1</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S35" s="1">
         <v>2</v>
@@ -3254,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W35" s="1">
         <v>0</v>
@@ -3268,13 +3280,13 @@
         <v>10031</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E36" s="6">
         <v>2</v>
       </c>
       <c r="F36" s="6">
-        <v>330104</v>
+        <v>330106</v>
       </c>
       <c r="G36" s="1">
         <v>1000</v>
@@ -3286,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="J36" s="6">
-        <v>330104</v>
+        <v>330106</v>
       </c>
       <c r="K36" s="6">
-        <v>330104</v>
+        <v>330106</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M36" s="4">
         <v>0</v>
@@ -3304,10 +3316,10 @@
         <v>-1</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="S36" s="1">
         <v>2</v>
@@ -3319,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W36" s="1">
         <v>0</v>
@@ -3333,13 +3345,13 @@
         <v>10032</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E37" s="6">
         <v>2</v>
       </c>
       <c r="F37" s="6">
-        <v>330105</v>
+        <v>330107</v>
       </c>
       <c r="G37" s="1">
         <v>1000</v>
@@ -3351,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="J37" s="6">
-        <v>330105</v>
+        <v>330107</v>
       </c>
       <c r="K37" s="6">
-        <v>330105</v>
+        <v>330107</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M37" s="4">
         <v>0</v>
@@ -3369,10 +3381,10 @@
         <v>-1</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="S37" s="1">
         <v>2</v>
@@ -3384,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W37" s="1">
         <v>0</v>
@@ -3398,13 +3410,13 @@
         <v>10033</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E38" s="6">
         <v>2</v>
       </c>
       <c r="F38" s="6">
-        <v>330106</v>
+        <v>330161</v>
       </c>
       <c r="G38" s="1">
         <v>1000</v>
@@ -3413,16 +3425,16 @@
         <v>0.01</v>
       </c>
       <c r="I38" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J38" s="6">
-        <v>330106</v>
+        <v>330161</v>
       </c>
       <c r="K38" s="6">
-        <v>330106</v>
+        <v>330161</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="M38" s="4">
         <v>0</v>
@@ -3434,10 +3446,10 @@
         <v>-1</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="S38" s="1">
         <v>2</v>
@@ -3449,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W38" s="1">
         <v>0</v>
@@ -3463,13 +3475,13 @@
         <v>10034</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39" s="6">
         <v>2</v>
       </c>
       <c r="F39" s="6">
-        <v>330107</v>
+        <v>330162</v>
       </c>
       <c r="G39" s="1">
         <v>1000</v>
@@ -3478,16 +3490,16 @@
         <v>0.01</v>
       </c>
       <c r="I39" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="6">
-        <v>330107</v>
+        <v>330162</v>
       </c>
       <c r="K39" s="6">
-        <v>330107</v>
+        <v>330162</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="M39" s="4">
         <v>0</v>
@@ -3499,10 +3511,10 @@
         <v>-1</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="S39" s="1">
         <v>2</v>
@@ -3514,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W39" s="1">
         <v>0</v>
@@ -3528,13 +3540,13 @@
         <v>10035</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E40" s="6">
         <v>2</v>
       </c>
       <c r="F40" s="6">
-        <v>330161</v>
+        <v>330163</v>
       </c>
       <c r="G40" s="1">
         <v>1000</v>
@@ -3546,13 +3558,13 @@
         <v>2</v>
       </c>
       <c r="J40" s="6">
-        <v>330161</v>
+        <v>330163</v>
       </c>
       <c r="K40" s="6">
-        <v>330161</v>
+        <v>330163</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="M40" s="4">
         <v>0</v>
@@ -3564,10 +3576,10 @@
         <v>-1</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="S40" s="1">
         <v>2</v>
@@ -3579,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W40" s="1">
         <v>0</v>
@@ -3593,13 +3605,13 @@
         <v>10036</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E41" s="6">
         <v>2</v>
       </c>
       <c r="F41" s="6">
-        <v>330162</v>
+        <v>330164</v>
       </c>
       <c r="G41" s="1">
         <v>1000</v>
@@ -3611,13 +3623,13 @@
         <v>2</v>
       </c>
       <c r="J41" s="6">
-        <v>330162</v>
+        <v>330164</v>
       </c>
       <c r="K41" s="6">
-        <v>330162</v>
+        <v>330164</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M41" s="4">
         <v>0</v>
@@ -3629,10 +3641,10 @@
         <v>-1</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S41" s="1">
         <v>2</v>
@@ -3644,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W41" s="1">
         <v>0</v>
@@ -3658,13 +3670,13 @@
         <v>10037</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E42" s="6">
         <v>2</v>
       </c>
       <c r="F42" s="6">
-        <v>330163</v>
+        <v>330165</v>
       </c>
       <c r="G42" s="1">
         <v>1000</v>
@@ -3676,13 +3688,13 @@
         <v>2</v>
       </c>
       <c r="J42" s="6">
-        <v>330163</v>
+        <v>330165</v>
       </c>
       <c r="K42" s="6">
-        <v>330163</v>
+        <v>330165</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M42" s="4">
         <v>0</v>
@@ -3694,10 +3706,10 @@
         <v>-1</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S42" s="1">
         <v>2</v>
@@ -3709,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W42" s="1">
         <v>0</v>
@@ -3723,13 +3735,13 @@
         <v>10038</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E43" s="6">
         <v>2</v>
       </c>
       <c r="F43" s="6">
-        <v>330164</v>
+        <v>340101</v>
       </c>
       <c r="G43" s="1">
         <v>1000</v>
@@ -3738,16 +3750,16 @@
         <v>0.01</v>
       </c>
       <c r="I43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" s="6">
-        <v>330164</v>
+        <v>340101</v>
       </c>
       <c r="K43" s="6">
-        <v>330164</v>
+        <v>340101</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M43" s="4">
         <v>0</v>
@@ -3759,10 +3771,10 @@
         <v>-1</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S43" s="1">
         <v>2</v>
@@ -3774,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W43" s="1">
         <v>0</v>
@@ -3788,13 +3800,13 @@
         <v>10039</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E44" s="6">
         <v>2</v>
       </c>
       <c r="F44" s="6">
-        <v>330165</v>
+        <v>340102</v>
       </c>
       <c r="G44" s="1">
         <v>1000</v>
@@ -3803,16 +3815,16 @@
         <v>0.01</v>
       </c>
       <c r="I44" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" s="6">
-        <v>330165</v>
+        <v>340102</v>
       </c>
       <c r="K44" s="6">
-        <v>330165</v>
+        <v>340102</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M44" s="4">
         <v>0</v>
@@ -3824,10 +3836,10 @@
         <v>-1</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="S44" s="1">
         <v>2</v>
@@ -3839,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="V44" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W44" s="1">
         <v>0</v>
@@ -3853,13 +3865,13 @@
         <v>10040</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E45" s="6">
         <v>2</v>
       </c>
       <c r="F45" s="6">
-        <v>340101</v>
+        <v>340103</v>
       </c>
       <c r="G45" s="1">
         <v>1000</v>
@@ -3871,13 +3883,13 @@
         <v>1</v>
       </c>
       <c r="J45" s="6">
-        <v>340101</v>
+        <v>340103</v>
       </c>
       <c r="K45" s="6">
-        <v>340101</v>
+        <v>340103</v>
       </c>
       <c r="L45" s="5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="M45" s="4">
         <v>0</v>
@@ -3889,10 +3901,10 @@
         <v>-1</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="S45" s="1">
         <v>2</v>
@@ -3904,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W45" s="1">
         <v>0</v>
@@ -3918,13 +3930,13 @@
         <v>10041</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E46" s="6">
         <v>2</v>
       </c>
       <c r="F46" s="6">
-        <v>340102</v>
+        <v>340104</v>
       </c>
       <c r="G46" s="1">
         <v>1000</v>
@@ -3936,13 +3948,13 @@
         <v>1</v>
       </c>
       <c r="J46" s="6">
-        <v>340102</v>
+        <v>340104</v>
       </c>
       <c r="K46" s="6">
-        <v>340102</v>
+        <v>340104</v>
       </c>
       <c r="L46" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M46" s="4">
         <v>0</v>
@@ -3954,10 +3966,10 @@
         <v>-1</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S46" s="1">
         <v>2</v>
@@ -3969,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W46" s="1">
         <v>0</v>
@@ -3983,13 +3995,13 @@
         <v>10042</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E47" s="6">
         <v>2</v>
       </c>
       <c r="F47" s="6">
-        <v>340103</v>
+        <v>340105</v>
       </c>
       <c r="G47" s="1">
         <v>1000</v>
@@ -4001,13 +4013,13 @@
         <v>1</v>
       </c>
       <c r="J47" s="6">
-        <v>340103</v>
+        <v>340105</v>
       </c>
       <c r="K47" s="6">
-        <v>340103</v>
+        <v>340105</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M47" s="4">
         <v>0</v>
@@ -4019,10 +4031,10 @@
         <v>-1</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S47" s="1">
         <v>2</v>
@@ -4034,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W47" s="1">
         <v>0</v>
@@ -4048,13 +4060,13 @@
         <v>10043</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E48" s="6">
         <v>2</v>
       </c>
       <c r="F48" s="6">
-        <v>340104</v>
+        <v>340106</v>
       </c>
       <c r="G48" s="1">
         <v>1000</v>
@@ -4066,13 +4078,13 @@
         <v>1</v>
       </c>
       <c r="J48" s="6">
-        <v>340104</v>
+        <v>340106</v>
       </c>
       <c r="K48" s="6">
-        <v>340104</v>
+        <v>340106</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M48" s="4">
         <v>0</v>
@@ -4084,10 +4096,10 @@
         <v>-1</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S48" s="1">
         <v>2</v>
@@ -4099,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W48" s="1">
         <v>0</v>
@@ -4113,13 +4125,13 @@
         <v>10044</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E49" s="6">
         <v>2</v>
       </c>
       <c r="F49" s="6">
-        <v>340105</v>
+        <v>340107</v>
       </c>
       <c r="G49" s="1">
         <v>1000</v>
@@ -4131,13 +4143,13 @@
         <v>1</v>
       </c>
       <c r="J49" s="6">
-        <v>340105</v>
+        <v>340107</v>
       </c>
       <c r="K49" s="6">
-        <v>340105</v>
+        <v>340107</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M49" s="4">
         <v>0</v>
@@ -4149,10 +4161,10 @@
         <v>-1</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="S49" s="1">
         <v>2</v>
@@ -4164,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W49" s="1">
         <v>0</v>
@@ -4178,13 +4190,13 @@
         <v>10045</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E50" s="6">
         <v>2</v>
       </c>
       <c r="F50" s="6">
-        <v>340106</v>
+        <v>340161</v>
       </c>
       <c r="G50" s="1">
         <v>1000</v>
@@ -4193,16 +4205,16 @@
         <v>0.01</v>
       </c>
       <c r="I50" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" s="6">
-        <v>340106</v>
+        <v>340161</v>
       </c>
       <c r="K50" s="6">
-        <v>340106</v>
+        <v>340161</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M50" s="4">
         <v>0</v>
@@ -4214,10 +4226,10 @@
         <v>-1</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S50" s="1">
         <v>2</v>
@@ -4229,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W50" s="1">
         <v>0</v>
@@ -4243,13 +4255,13 @@
         <v>10046</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E51" s="6">
         <v>2</v>
       </c>
       <c r="F51" s="6">
-        <v>340107</v>
+        <v>340162</v>
       </c>
       <c r="G51" s="1">
         <v>1000</v>
@@ -4258,16 +4270,16 @@
         <v>0.01</v>
       </c>
       <c r="I51" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" s="6">
-        <v>340107</v>
+        <v>340162</v>
       </c>
       <c r="K51" s="6">
-        <v>340107</v>
+        <v>340162</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M51" s="4">
         <v>0</v>
@@ -4279,10 +4291,10 @@
         <v>-1</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="S51" s="1">
         <v>2</v>
@@ -4294,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W51" s="1">
         <v>0</v>
@@ -4308,13 +4320,13 @@
         <v>10047</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E52" s="6">
         <v>2</v>
       </c>
       <c r="F52" s="6">
-        <v>340161</v>
+        <v>340163</v>
       </c>
       <c r="G52" s="1">
         <v>1000</v>
@@ -4326,13 +4338,13 @@
         <v>2</v>
       </c>
       <c r="J52" s="6">
-        <v>340161</v>
+        <v>340163</v>
       </c>
       <c r="K52" s="6">
-        <v>340161</v>
+        <v>340163</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M52" s="4">
         <v>0</v>
@@ -4344,10 +4356,10 @@
         <v>-1</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S52" s="1">
         <v>2</v>
@@ -4359,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W52" s="1">
         <v>0</v>
@@ -4373,13 +4385,13 @@
         <v>10048</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E53" s="6">
         <v>2</v>
       </c>
       <c r="F53" s="6">
-        <v>340162</v>
+        <v>340164</v>
       </c>
       <c r="G53" s="1">
         <v>1000</v>
@@ -4391,13 +4403,13 @@
         <v>2</v>
       </c>
       <c r="J53" s="6">
-        <v>340162</v>
+        <v>340164</v>
       </c>
       <c r="K53" s="6">
-        <v>340162</v>
+        <v>340164</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M53" s="4">
         <v>0</v>
@@ -4409,10 +4421,10 @@
         <v>-1</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q53" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S53" s="1">
         <v>2</v>
@@ -4424,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W53" s="1">
         <v>0</v>
@@ -4438,13 +4450,13 @@
         <v>10049</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E54" s="6">
         <v>2</v>
       </c>
       <c r="F54" s="6">
-        <v>340163</v>
+        <v>340165</v>
       </c>
       <c r="G54" s="1">
         <v>1000</v>
@@ -4456,13 +4468,13 @@
         <v>2</v>
       </c>
       <c r="J54" s="6">
-        <v>340163</v>
+        <v>340165</v>
       </c>
       <c r="K54" s="6">
-        <v>340163</v>
+        <v>340165</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M54" s="4">
         <v>0</v>
@@ -4474,10 +4486,10 @@
         <v>-1</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q54" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S54" s="1">
         <v>2</v>
@@ -4489,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W54" s="1">
         <v>0</v>
@@ -4503,13 +4515,13 @@
         <v>10050</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E55" s="6">
         <v>2</v>
       </c>
       <c r="F55" s="6">
-        <v>340164</v>
+        <v>350101</v>
       </c>
       <c r="G55" s="1">
         <v>1000</v>
@@ -4518,16 +4530,16 @@
         <v>0.01</v>
       </c>
       <c r="I55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" s="6">
-        <v>340164</v>
+        <v>350101</v>
       </c>
       <c r="K55" s="6">
-        <v>340164</v>
+        <v>350101</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M55" s="4">
         <v>0</v>
@@ -4539,10 +4551,10 @@
         <v>-1</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q55" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="S55" s="1">
         <v>2</v>
@@ -4554,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W55" s="1">
         <v>0</v>
@@ -4568,13 +4580,13 @@
         <v>10051</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E56" s="6">
         <v>2</v>
       </c>
       <c r="F56" s="6">
-        <v>340165</v>
+        <v>350102</v>
       </c>
       <c r="G56" s="1">
         <v>1000</v>
@@ -4583,16 +4595,16 @@
         <v>0.01</v>
       </c>
       <c r="I56" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" s="6">
-        <v>340165</v>
+        <v>350102</v>
       </c>
       <c r="K56" s="6">
-        <v>340165</v>
+        <v>350102</v>
       </c>
       <c r="L56" s="5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M56" s="4">
         <v>0</v>
@@ -4604,10 +4616,10 @@
         <v>-1</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q56" s="4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="S56" s="1">
         <v>2</v>
@@ -4619,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W56" s="1">
         <v>0</v>
@@ -4633,13 +4645,13 @@
         <v>10052</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E57" s="6">
         <v>2</v>
       </c>
       <c r="F57" s="6">
-        <v>350101</v>
+        <v>350103</v>
       </c>
       <c r="G57" s="1">
         <v>1000</v>
@@ -4651,13 +4663,13 @@
         <v>1</v>
       </c>
       <c r="J57" s="6">
-        <v>350101</v>
+        <v>350103</v>
       </c>
       <c r="K57" s="6">
-        <v>350101</v>
+        <v>350103</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="M57" s="4">
         <v>0</v>
@@ -4669,10 +4681,10 @@
         <v>-1</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q57" s="4" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="S57" s="1">
         <v>2</v>
@@ -4684,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W57" s="1">
         <v>0</v>
@@ -4698,13 +4710,13 @@
         <v>10053</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E58" s="6">
         <v>2</v>
       </c>
       <c r="F58" s="6">
-        <v>350102</v>
+        <v>350104</v>
       </c>
       <c r="G58" s="1">
         <v>1000</v>
@@ -4716,13 +4728,13 @@
         <v>1</v>
       </c>
       <c r="J58" s="6">
-        <v>350102</v>
+        <v>350104</v>
       </c>
       <c r="K58" s="6">
-        <v>350102</v>
+        <v>350104</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="M58" s="4">
         <v>0</v>
@@ -4734,10 +4746,10 @@
         <v>-1</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q58" s="4" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="S58" s="1">
         <v>2</v>
@@ -4749,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W58" s="1">
         <v>0</v>
@@ -4763,13 +4775,13 @@
         <v>10054</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E59" s="6">
         <v>2</v>
       </c>
       <c r="F59" s="6">
-        <v>350103</v>
+        <v>350105</v>
       </c>
       <c r="G59" s="1">
         <v>1000</v>
@@ -4781,13 +4793,13 @@
         <v>1</v>
       </c>
       <c r="J59" s="6">
-        <v>350103</v>
+        <v>350105</v>
       </c>
       <c r="K59" s="6">
-        <v>350103</v>
+        <v>350105</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="M59" s="4">
         <v>0</v>
@@ -4799,10 +4811,10 @@
         <v>-1</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q59" s="4" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="S59" s="1">
         <v>2</v>
@@ -4814,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W59" s="1">
         <v>0</v>
@@ -4828,13 +4840,13 @@
         <v>10055</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E60" s="6">
         <v>2</v>
       </c>
       <c r="F60" s="6">
-        <v>350104</v>
+        <v>350106</v>
       </c>
       <c r="G60" s="1">
         <v>1000</v>
@@ -4846,13 +4858,13 @@
         <v>1</v>
       </c>
       <c r="J60" s="6">
-        <v>350104</v>
+        <v>350106</v>
       </c>
       <c r="K60" s="6">
-        <v>350104</v>
+        <v>350106</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="M60" s="4">
         <v>0</v>
@@ -4864,10 +4876,10 @@
         <v>-1</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q60" s="4" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="S60" s="1">
         <v>2</v>
@@ -4879,7 +4891,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W60" s="1">
         <v>0</v>
@@ -4893,13 +4905,13 @@
         <v>10056</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E61" s="6">
         <v>2</v>
       </c>
       <c r="F61" s="6">
-        <v>350105</v>
+        <v>350161</v>
       </c>
       <c r="G61" s="1">
         <v>1000</v>
@@ -4908,16 +4920,16 @@
         <v>0.01</v>
       </c>
       <c r="I61" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" s="6">
-        <v>350105</v>
+        <v>350161</v>
       </c>
       <c r="K61" s="6">
-        <v>350105</v>
+        <v>350161</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M61" s="4">
         <v>0</v>
@@ -4929,10 +4941,10 @@
         <v>-1</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q61" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="S61" s="1">
         <v>2</v>
@@ -4944,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W61" s="1">
         <v>0</v>
@@ -4958,13 +4970,13 @@
         <v>10057</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E62" s="6">
         <v>2</v>
       </c>
       <c r="F62" s="6">
-        <v>350106</v>
+        <v>350162</v>
       </c>
       <c r="G62" s="1">
         <v>1000</v>
@@ -4973,16 +4985,16 @@
         <v>0.01</v>
       </c>
       <c r="I62" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" s="6">
-        <v>350106</v>
+        <v>350162</v>
       </c>
       <c r="K62" s="6">
-        <v>350106</v>
+        <v>350162</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M62" s="4">
         <v>0</v>
@@ -4994,10 +5006,10 @@
         <v>-1</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q62" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S62" s="1">
         <v>2</v>
@@ -5009,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W62" s="1">
         <v>0</v>
@@ -5023,13 +5035,13 @@
         <v>10058</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E63" s="6">
         <v>2</v>
       </c>
       <c r="F63" s="6">
-        <v>350161</v>
+        <v>350163</v>
       </c>
       <c r="G63" s="1">
         <v>1000</v>
@@ -5041,13 +5053,13 @@
         <v>2</v>
       </c>
       <c r="J63" s="6">
-        <v>350161</v>
+        <v>350163</v>
       </c>
       <c r="K63" s="6">
-        <v>350161</v>
+        <v>350163</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M63" s="4">
         <v>0</v>
@@ -5059,10 +5071,10 @@
         <v>-1</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q63" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="S63" s="1">
         <v>2</v>
@@ -5074,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W63" s="1">
         <v>0</v>
@@ -5088,13 +5100,13 @@
         <v>10059</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E64" s="6">
         <v>2</v>
       </c>
       <c r="F64" s="6">
-        <v>350162</v>
+        <v>350164</v>
       </c>
       <c r="G64" s="1">
         <v>1000</v>
@@ -5106,13 +5118,13 @@
         <v>2</v>
       </c>
       <c r="J64" s="6">
-        <v>350162</v>
+        <v>350164</v>
       </c>
       <c r="K64" s="6">
-        <v>350162</v>
+        <v>350164</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M64" s="4">
         <v>0</v>
@@ -5124,10 +5136,10 @@
         <v>-1</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="S64" s="1">
         <v>2</v>
@@ -5139,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="V64" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W64" s="1">
         <v>0</v>
@@ -5153,46 +5165,46 @@
         <v>10060</v>
       </c>
       <c r="D65" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2</v>
+      </c>
+      <c r="F65" s="6">
+        <v>350165</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="I65" s="6">
+        <v>2</v>
+      </c>
+      <c r="J65" s="6">
+        <v>350165</v>
+      </c>
+      <c r="K65" s="6">
+        <v>350165</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M65" s="4">
+        <v>0</v>
+      </c>
+      <c r="N65" s="4">
+        <v>0</v>
+      </c>
+      <c r="O65" s="2">
+        <v>-1</v>
+      </c>
+      <c r="P65" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E65" s="6">
-        <v>2</v>
-      </c>
-      <c r="F65" s="6">
-        <v>350163</v>
-      </c>
-      <c r="G65" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H65" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I65" s="6">
-        <v>2</v>
-      </c>
-      <c r="J65" s="6">
-        <v>350163</v>
-      </c>
-      <c r="K65" s="6">
-        <v>350163</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M65" s="4">
-        <v>0</v>
-      </c>
-      <c r="N65" s="4">
-        <v>0</v>
-      </c>
-      <c r="O65" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="Q65" s="4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="S65" s="1">
         <v>2</v>
@@ -5204,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="W65" s="1">
         <v>0</v>
@@ -5214,134 +5226,10 @@
       </c>
     </row>
     <row r="66" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C66" s="4">
-        <v>10061</v>
-      </c>
-      <c r="D66" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="6">
-        <v>2</v>
-      </c>
-      <c r="F66" s="6">
-        <v>350164</v>
-      </c>
-      <c r="G66" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H66" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I66" s="6">
-        <v>2</v>
-      </c>
-      <c r="J66" s="6">
-        <v>350164</v>
-      </c>
-      <c r="K66" s="6">
-        <v>350164</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M66" s="4">
-        <v>0</v>
-      </c>
-      <c r="N66" s="4">
-        <v>0</v>
-      </c>
-      <c r="O66" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P66" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S66" s="1">
-        <v>2</v>
-      </c>
-      <c r="T66" s="1">
-        <v>0</v>
-      </c>
-      <c r="U66" s="1">
-        <v>0</v>
-      </c>
-      <c r="V66" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="W66" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="1">
-        <v>0</v>
-      </c>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="C67" s="4">
-        <v>10062</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E67" s="6">
-        <v>2</v>
-      </c>
-      <c r="F67" s="6">
-        <v>350165</v>
-      </c>
-      <c r="G67" s="1">
-        <v>1000</v>
-      </c>
-      <c r="H67" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="I67" s="6">
-        <v>2</v>
-      </c>
-      <c r="J67" s="6">
-        <v>350165</v>
-      </c>
-      <c r="K67" s="6">
-        <v>350165</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M67" s="4">
-        <v>0</v>
-      </c>
-      <c r="N67" s="4">
-        <v>0</v>
-      </c>
-      <c r="O67" s="2">
-        <v>-1</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S67" s="1">
-        <v>2</v>
-      </c>
-      <c r="T67" s="1">
-        <v>0</v>
-      </c>
-      <c r="U67" s="1">
-        <v>0</v>
-      </c>
-      <c r="V67" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="W67" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="1">
-        <v>0</v>
-      </c>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D68" s="6"/>
@@ -5471,12 +5359,6 @@
     </row>
     <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110" s="6"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D111" s="6"/>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D112" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/JingLingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/JingLingConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC1A9BA-0EE7-490C-9C11-38DB21413055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B7BC44-550F-4363-BF17-D4AC1AE405F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="162">
   <si>
     <t>c</t>
   </si>
@@ -605,6 +605,86 @@
   </si>
   <si>
     <t>200103;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪恶鳄鱼</t>
+  </si>
+  <si>
+    <t>火焰松鼠</t>
+  </si>
+  <si>
+    <t>白羽蝴蝶</t>
+  </si>
+  <si>
+    <t>冰雪人</t>
+  </si>
+  <si>
+    <t>火焰之树</t>
+  </si>
+  <si>
+    <t>天空守卫</t>
+  </si>
+  <si>
+    <t>熔岩之魔</t>
+  </si>
+  <si>
+    <t>天狼蜘蛛</t>
+  </si>
+  <si>
+    <t>100403;30</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>202103;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100202;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200403;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200903;0.01</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100203;500</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外奇遇</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击提升30点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗暴率+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加成+1%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命上限+500点</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外有一定几率遇到,可以抓捕它哟！</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1076,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Y110"/>
+  <dimension ref="C1:Y108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -5226,28 +5306,500 @@
       </c>
     </row>
     <row r="66" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D66" s="6"/>
+      <c r="C66" s="4">
+        <v>20001</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <v>0</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0</v>
+      </c>
+      <c r="I66" s="4">
+        <v>3</v>
+      </c>
+      <c r="J66" s="4">
+        <v>400001</v>
+      </c>
+      <c r="K66" s="4">
+        <v>400001</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="M66" s="1">
+        <v>0</v>
+      </c>
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q66" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S66" s="1">
+        <v>2</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0</v>
+      </c>
+      <c r="U66" s="1">
+        <v>0</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D67" s="6"/>
+      <c r="C67" s="4">
+        <v>20002</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <v>0</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0</v>
+      </c>
+      <c r="I67" s="4">
+        <v>3</v>
+      </c>
+      <c r="J67" s="4">
+        <v>400002</v>
+      </c>
+      <c r="K67" s="4">
+        <v>400002</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M67" s="1">
+        <v>0</v>
+      </c>
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q67" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S67" s="1">
+        <v>2</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0</v>
+      </c>
+      <c r="U67" s="1">
+        <v>0</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D68" s="6"/>
+      <c r="C68" s="4">
+        <v>20003</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <v>0</v>
+      </c>
+      <c r="H68" s="4">
+        <v>0</v>
+      </c>
+      <c r="I68" s="4">
+        <v>3</v>
+      </c>
+      <c r="J68" s="4">
+        <v>400003</v>
+      </c>
+      <c r="K68" s="4">
+        <v>400003</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M68" s="1">
+        <v>0</v>
+      </c>
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q68" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="S68" s="1">
+        <v>2</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0</v>
+      </c>
+      <c r="U68" s="1">
+        <v>0</v>
+      </c>
+      <c r="V68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D69" s="6"/>
+      <c r="C69" s="4">
+        <v>20004</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <v>0</v>
+      </c>
+      <c r="H69" s="4">
+        <v>0</v>
+      </c>
+      <c r="I69" s="4">
+        <v>3</v>
+      </c>
+      <c r="J69" s="4">
+        <v>400004</v>
+      </c>
+      <c r="K69" s="4">
+        <v>400004</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M69" s="1">
+        <v>0</v>
+      </c>
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="P69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q69" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="S69" s="1">
+        <v>2</v>
+      </c>
+      <c r="T69" s="1">
+        <v>0</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+      <c r="V69" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D70" s="6"/>
+      <c r="C70" s="4">
+        <v>20005</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>0</v>
+      </c>
+      <c r="I70" s="4">
+        <v>3</v>
+      </c>
+      <c r="J70" s="4">
+        <v>400005</v>
+      </c>
+      <c r="K70" s="4">
+        <v>400005</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M70" s="1">
+        <v>0</v>
+      </c>
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="P70" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q70" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="S70" s="1">
+        <v>2</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0</v>
+      </c>
+      <c r="U70" s="1">
+        <v>0</v>
+      </c>
+      <c r="V70" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D71" s="6"/>
+      <c r="C71" s="4">
+        <v>20006</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <v>3</v>
+      </c>
+      <c r="J71" s="4">
+        <v>400006</v>
+      </c>
+      <c r="K71" s="4">
+        <v>400006</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="M71" s="1">
+        <v>0</v>
+      </c>
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="P71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q71" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="S71" s="1">
+        <v>2</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0</v>
+      </c>
+      <c r="U71" s="1">
+        <v>0</v>
+      </c>
+      <c r="V71" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D72" s="6"/>
+      <c r="C72" s="4">
+        <v>20007</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0</v>
+      </c>
+      <c r="I72" s="4">
+        <v>3</v>
+      </c>
+      <c r="J72" s="4">
+        <v>400007</v>
+      </c>
+      <c r="K72" s="4">
+        <v>400007</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="M72" s="1">
+        <v>0</v>
+      </c>
+      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="P72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q72" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S72" s="1">
+        <v>2</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0</v>
+      </c>
+      <c r="U72" s="1">
+        <v>0</v>
+      </c>
+      <c r="V72" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="3:25" x14ac:dyDescent="0.3">
-      <c r="D73" s="6"/>
+      <c r="C73" s="4">
+        <v>20008</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0</v>
+      </c>
+      <c r="I73" s="4">
+        <v>3</v>
+      </c>
+      <c r="J73" s="4">
+        <v>400008</v>
+      </c>
+      <c r="K73" s="4">
+        <v>400008</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="M73" s="1">
+        <v>0</v>
+      </c>
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="P73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q73" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="S73" s="1">
+        <v>2</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="3:25" x14ac:dyDescent="0.3">
       <c r="D74" s="6"/>
@@ -5353,12 +5905,6 @@
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="6"/>
-    </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D109" s="6"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D110" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Unity/Assets/Config/Excel/JingLingConfig.xlsx
+++ b/Unity/Assets/Config/Excel/JingLingConfig.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16568A3-EEF8-4AE3-B454-BDD636F58970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JingLingProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="G3" authorId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="1">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="1">
+    <comment ref="W3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -147,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -177,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="190">
   <si>
     <t>c</t>
   </si>
@@ -290,377 +283,471 @@
     <t>Lv</t>
   </si>
   <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>MoveX</t>
+  </si>
+  <si>
+    <t>MoveY</t>
+  </si>
+  <si>
+    <t>GetDes</t>
+  </si>
+  <si>
+    <t>FunctionType</t>
+  </si>
+  <si>
+    <t>FunctionValue</t>
+  </si>
+  <si>
+    <t>AutoPick</t>
+  </si>
+  <si>
+    <t>ModelShowPosi</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>double</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>100403;50</t>
+  </si>
+  <si>
+    <t>怪物级</t>
+  </si>
+  <si>
+    <t>攻击提升50点</t>
+  </si>
+  <si>
+    <t>击败怪物有一定怪物激活</t>
+  </si>
+  <si>
+    <t>0,110,400,60,0</t>
+  </si>
+  <si>
+    <t>森灵小妖</t>
+  </si>
+  <si>
+    <t>100203;500</t>
+  </si>
+  <si>
+    <t>生命上限+500点</t>
+  </si>
+  <si>
+    <t>森灵小猪</t>
+  </si>
+  <si>
+    <t>202103;0.01</t>
+  </si>
+  <si>
+    <t>重击概率+1%</t>
+  </si>
+  <si>
+    <t>绿林熊妖</t>
+  </si>
+  <si>
+    <t>100202;0.01</t>
+  </si>
+  <si>
+    <t>生命上限+1%</t>
+  </si>
+  <si>
+    <t>山贼</t>
+  </si>
+  <si>
+    <t>119303;50</t>
+  </si>
+  <si>
+    <t>命中等级提升50点</t>
+  </si>
+  <si>
+    <t>森林蜘蛛</t>
+  </si>
+  <si>
+    <t>200903;0.05</t>
+  </si>
+  <si>
+    <t>伤害加成+5%</t>
+  </si>
+  <si>
+    <t>森林熊</t>
+  </si>
+  <si>
+    <t>200303;0.01</t>
+  </si>
+  <si>
+    <t>闪避概率+1%</t>
+  </si>
+  <si>
+    <t>獠牙猪妖</t>
+  </si>
+  <si>
+    <t>120703;100</t>
+  </si>
+  <si>
+    <t>领主级</t>
+  </si>
+  <si>
+    <t>法术强度提升100点</t>
+  </si>
+  <si>
+    <t>巨锤酋长</t>
+  </si>
+  <si>
+    <t>100403;100</t>
+  </si>
+  <si>
+    <t>攻击提升100点</t>
+  </si>
+  <si>
+    <t>恶魔猪王</t>
+  </si>
+  <si>
+    <t>100203;1000</t>
+  </si>
+  <si>
+    <t>生命上限+1000点</t>
+  </si>
+  <si>
+    <t>邪能之主</t>
+  </si>
+  <si>
+    <t>120603;100</t>
+  </si>
+  <si>
+    <t>攻击强度提升100点</t>
+  </si>
+  <si>
+    <t>森灵之树</t>
+  </si>
+  <si>
+    <t>200403;0.01</t>
+  </si>
+  <si>
+    <t>抗暴率+1%</t>
+  </si>
+  <si>
+    <t>漠灵风暴之王</t>
+  </si>
+  <si>
+    <t>100603;100</t>
+  </si>
+  <si>
+    <t>物防提升100点</t>
+  </si>
+  <si>
+    <t>绿洲龟</t>
+  </si>
+  <si>
+    <t>绿洲恐龙</t>
+  </si>
+  <si>
+    <t>绿洲蜗牛</t>
+  </si>
+  <si>
+    <t>荒漠鹰</t>
+  </si>
+  <si>
+    <t>迅捷恐龙</t>
+  </si>
+  <si>
+    <t>遗迹火焰</t>
+  </si>
+  <si>
+    <t>遗迹弓手</t>
+  </si>
+  <si>
+    <t>荒漠巨蟹</t>
+  </si>
+  <si>
+    <t>沙漠之鳄</t>
+  </si>
+  <si>
+    <t>绿洲龟王</t>
+  </si>
+  <si>
+    <t>遗迹守护者</t>
+  </si>
+  <si>
+    <t>遗迹之王</t>
+  </si>
+  <si>
+    <t>螃蟹护卫</t>
+  </si>
+  <si>
+    <t>猛虎</t>
+  </si>
+  <si>
+    <t>丛林虎</t>
+  </si>
+  <si>
+    <t>兽人护卫</t>
+  </si>
+  <si>
+    <t>地精守卫</t>
+  </si>
+  <si>
+    <t>兽人骑兵</t>
+  </si>
+  <si>
+    <t>岩石护卫</t>
+  </si>
+  <si>
+    <t>蛤蟆守护者</t>
+  </si>
+  <si>
+    <t>200103;0.01</t>
+  </si>
+  <si>
+    <t>暴击概率+1%</t>
+  </si>
+  <si>
+    <t>森林之王</t>
+  </si>
+  <si>
+    <t>地下巨鳄</t>
+  </si>
+  <si>
+    <t>地下兽人祭祀</t>
+  </si>
+  <si>
+    <t>地灵牛头之王</t>
+  </si>
+  <si>
+    <t>冰灵蜘蛛</t>
+  </si>
+  <si>
+    <t>雪狼</t>
+  </si>
+  <si>
+    <t>冰灵山羊</t>
+  </si>
+  <si>
+    <t>冰封蜗牛</t>
+  </si>
+  <si>
+    <t>冰块士兵</t>
+  </si>
+  <si>
+    <t>冰灵</t>
+  </si>
+  <si>
+    <t>冰块护卫</t>
+  </si>
+  <si>
+    <t>冰封蛛王</t>
+  </si>
+  <si>
+    <t>冰灵之王</t>
+  </si>
+  <si>
+    <t>冰岩巨人</t>
+  </si>
+  <si>
+    <t>冰雪之主</t>
+  </si>
+  <si>
+    <t>冰封巨龙</t>
+  </si>
+  <si>
+    <t>精灵蝴蝶</t>
+  </si>
+  <si>
+    <t>影月护卫</t>
+  </si>
+  <si>
+    <t>影月弓手</t>
+  </si>
+  <si>
+    <t>影月骑兵</t>
+  </si>
+  <si>
+    <t>暗灵士兵</t>
+  </si>
+  <si>
+    <t>熔岩护卫</t>
+  </si>
+  <si>
+    <t>影月碟王</t>
+  </si>
+  <si>
+    <t>影月女王</t>
+  </si>
+  <si>
+    <t>暗灵守卫者</t>
+  </si>
+  <si>
+    <t>暗灵狮鹫</t>
+  </si>
+  <si>
+    <t>暗灵之主</t>
+  </si>
+  <si>
+    <t>邪恶鳄鱼</t>
+  </si>
+  <si>
+    <t>100403;30</t>
+  </si>
+  <si>
+    <t>野外奇遇</t>
+  </si>
+  <si>
+    <t>攻击提升30点</t>
+  </si>
+  <si>
+    <t>野外有一定几率遇到,可以抓捕它哟！</t>
+  </si>
+  <si>
+    <t>火焰松鼠</t>
+  </si>
+  <si>
+    <t>白羽蝴蝶</t>
+  </si>
+  <si>
+    <t>冰雪人</t>
+  </si>
+  <si>
+    <t>火焰之树</t>
+  </si>
+  <si>
+    <t>天空守卫</t>
+  </si>
+  <si>
+    <t>熔岩之魔</t>
+  </si>
+  <si>
+    <t>200903;0.01</t>
+  </si>
+  <si>
+    <t>伤害加成+1%</t>
+  </si>
+  <si>
+    <t>天狼蜘蛛</t>
+  </si>
+  <si>
     <t>ProDes</t>
-  </si>
-  <si>
-    <t>Des</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>MoveX</t>
-  </si>
-  <si>
-    <t>MoveY</t>
-  </si>
-  <si>
-    <t>GetDes</t>
-  </si>
-  <si>
-    <t>FunctionType</t>
-  </si>
-  <si>
-    <t>FunctionValue</t>
-  </si>
-  <si>
-    <t>AutoPick</t>
-  </si>
-  <si>
-    <t>ModelShowPosi</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>double</t>
-  </si>
-  <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
-    <t>100403;50</t>
-  </si>
-  <si>
-    <t>怪物级</t>
-  </si>
-  <si>
-    <t>攻击提升50点</t>
-  </si>
-  <si>
-    <t>击败怪物有一定怪物激活</t>
-  </si>
-  <si>
-    <t>0,110,400,60,0</t>
-  </si>
-  <si>
-    <t>森灵小妖</t>
-  </si>
-  <si>
-    <t>100203;500</t>
-  </si>
-  <si>
-    <t>生命上限+500点</t>
-  </si>
-  <si>
-    <t>森灵小猪</t>
-  </si>
-  <si>
-    <t>202103;0.01</t>
-  </si>
-  <si>
-    <t>重击概率+1%</t>
-  </si>
-  <si>
-    <t>绿林熊妖</t>
-  </si>
-  <si>
-    <t>100202;0.01</t>
-  </si>
-  <si>
-    <t>生命上限+1%</t>
-  </si>
-  <si>
-    <t>山贼</t>
-  </si>
-  <si>
-    <t>119303;50</t>
-  </si>
-  <si>
-    <t>命中等级提升50点</t>
-  </si>
-  <si>
-    <t>森林蜘蛛</t>
-  </si>
-  <si>
-    <t>200903;0.05</t>
-  </si>
-  <si>
-    <t>伤害加成+5%</t>
-  </si>
-  <si>
-    <t>森林熊</t>
-  </si>
-  <si>
-    <t>200303;0.01</t>
-  </si>
-  <si>
-    <t>闪避概率+1%</t>
-  </si>
-  <si>
-    <t>獠牙猪妖</t>
-  </si>
-  <si>
-    <t>120703;100</t>
-  </si>
-  <si>
-    <t>领主级</t>
-  </si>
-  <si>
-    <t>法术强度提升100点</t>
-  </si>
-  <si>
-    <t>巨锤酋长</t>
-  </si>
-  <si>
-    <t>100403;100</t>
-  </si>
-  <si>
-    <t>攻击提升100点</t>
-  </si>
-  <si>
-    <t>恶魔猪王</t>
-  </si>
-  <si>
-    <t>100203;1000</t>
-  </si>
-  <si>
-    <t>生命上限+1000点</t>
-  </si>
-  <si>
-    <t>邪能之主</t>
-  </si>
-  <si>
-    <t>120603;100</t>
-  </si>
-  <si>
-    <t>攻击强度提升100点</t>
-  </si>
-  <si>
-    <t>森灵之树</t>
-  </si>
-  <si>
-    <t>200403;0.01</t>
-  </si>
-  <si>
-    <t>抗暴率+1%</t>
-  </si>
-  <si>
-    <t>漠灵风暴之王</t>
-  </si>
-  <si>
-    <t>100603;100</t>
-  </si>
-  <si>
-    <t>物防提升100点</t>
-  </si>
-  <si>
-    <t>绿洲龟</t>
-  </si>
-  <si>
-    <t>绿洲恐龙</t>
-  </si>
-  <si>
-    <t>绿洲蜗牛</t>
-  </si>
-  <si>
-    <t>荒漠鹰</t>
-  </si>
-  <si>
-    <t>迅捷恐龙</t>
-  </si>
-  <si>
-    <t>遗迹火焰</t>
-  </si>
-  <si>
-    <t>遗迹弓手</t>
-  </si>
-  <si>
-    <t>荒漠巨蟹</t>
-  </si>
-  <si>
-    <t>沙漠之鳄</t>
-  </si>
-  <si>
-    <t>绿洲龟王</t>
-  </si>
-  <si>
-    <t>遗迹守护者</t>
-  </si>
-  <si>
-    <t>遗迹之王</t>
-  </si>
-  <si>
-    <t>螃蟹护卫</t>
-  </si>
-  <si>
-    <t>猛虎</t>
-  </si>
-  <si>
-    <t>丛林虎</t>
-  </si>
-  <si>
-    <t>兽人护卫</t>
-  </si>
-  <si>
-    <t>地精守卫</t>
-  </si>
-  <si>
-    <t>兽人骑兵</t>
-  </si>
-  <si>
-    <t>岩石护卫</t>
-  </si>
-  <si>
-    <t>蛤蟆守护者</t>
-  </si>
-  <si>
-    <t>200103;0.01</t>
-  </si>
-  <si>
-    <t>暴击概率+1%</t>
-  </si>
-  <si>
-    <t>森林之王</t>
-  </si>
-  <si>
-    <t>地下巨鳄</t>
-  </si>
-  <si>
-    <t>地下兽人祭祀</t>
-  </si>
-  <si>
-    <t>地灵牛头之王</t>
-  </si>
-  <si>
-    <t>冰灵蜘蛛</t>
-  </si>
-  <si>
-    <t>雪狼</t>
-  </si>
-  <si>
-    <t>冰灵山羊</t>
-  </si>
-  <si>
-    <t>冰封蜗牛</t>
-  </si>
-  <si>
-    <t>冰块士兵</t>
-  </si>
-  <si>
-    <t>冰灵</t>
-  </si>
-  <si>
-    <t>冰块护卫</t>
-  </si>
-  <si>
-    <t>冰封蛛王</t>
-  </si>
-  <si>
-    <t>冰灵之王</t>
-  </si>
-  <si>
-    <t>冰岩巨人</t>
-  </si>
-  <si>
-    <t>冰雪之主</t>
-  </si>
-  <si>
-    <t>冰封巨龙</t>
-  </si>
-  <si>
-    <t>精灵蝴蝶</t>
-  </si>
-  <si>
-    <t>影月护卫</t>
-  </si>
-  <si>
-    <t>影月弓手</t>
-  </si>
-  <si>
-    <t>影月骑兵</t>
-  </si>
-  <si>
-    <t>暗灵士兵</t>
-  </si>
-  <si>
-    <t>熔岩护卫</t>
-  </si>
-  <si>
-    <t>影月碟王</t>
-  </si>
-  <si>
-    <t>影月女王</t>
-  </si>
-  <si>
-    <t>暗灵守卫者</t>
-  </si>
-  <si>
-    <t>暗灵狮鹫</t>
-  </si>
-  <si>
-    <t>暗灵之主</t>
-  </si>
-  <si>
-    <t>邪恶鳄鱼</t>
-  </si>
-  <si>
-    <t>100403;30</t>
-  </si>
-  <si>
-    <t>野外奇遇</t>
-  </si>
-  <si>
-    <t>攻击提升30点</t>
-  </si>
-  <si>
-    <t>野外有一定几率遇到,可以抓捕它哟！</t>
-  </si>
-  <si>
-    <t>火焰松鼠</t>
-  </si>
-  <si>
-    <t>白羽蝴蝶</t>
-  </si>
-  <si>
-    <t>冰雪人</t>
-  </si>
-  <si>
-    <t>火焰之树</t>
-  </si>
-  <si>
-    <t>天空守卫</t>
-  </si>
-  <si>
-    <t>熔岩之魔</t>
-  </si>
-  <si>
-    <t>200903;0.01</t>
-  </si>
-  <si>
-    <t>伤害加成+1%</t>
-  </si>
-  <si>
-    <t>天狼蜘蛛</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,110,250,60,0</t>
+  </si>
+  <si>
+    <t>0,60,250,35,0</t>
+  </si>
+  <si>
+    <t>0,60,250,40,0</t>
+  </si>
+  <si>
+    <t>0,80,250,50,0</t>
+  </si>
+  <si>
+    <t>0,60,250,30,0</t>
+  </si>
+  <si>
+    <t>0,90,250,50,0</t>
+  </si>
+  <si>
+    <t>0,90,250,60,0</t>
+  </si>
+  <si>
+    <t>0,70,250,40,0</t>
+  </si>
+  <si>
+    <t>0,80,250,45,0</t>
+  </si>
+  <si>
+    <t>0,90,250,55,0</t>
+  </si>
+  <si>
+    <t>0,90,250,40,0</t>
+  </si>
+  <si>
+    <t>0,90,250,45,35</t>
+  </si>
+  <si>
+    <t>0,80,250,40,0</t>
+  </si>
+  <si>
+    <t>0,220,400,80,0</t>
+  </si>
+  <si>
+    <t>0,125,400,65,0</t>
+  </si>
+  <si>
+    <t>0,170,400,60,0</t>
+  </si>
+  <si>
+    <t>0,135,400,70,0</t>
+  </si>
+  <si>
+    <t>0,190,500,70,-60</t>
+  </si>
+  <si>
+    <t>0,150,400,80,0</t>
+  </si>
+  <si>
+    <t>0,200,400,80,0</t>
+  </si>
+  <si>
+    <t>0,120,400,70,0</t>
+  </si>
+  <si>
+    <t>0,125,400,70,0</t>
+  </si>
+  <si>
+    <t>0,280,400,70,0</t>
+  </si>
+  <si>
+    <t>0,130,400,80,-60</t>
+  </si>
+  <si>
+    <t>0,140,400,65,0</t>
+  </si>
+  <si>
+    <t>0,150,400,60,0</t>
+  </si>
+  <si>
+    <t>0,140,400,70,0</t>
+  </si>
+  <si>
+    <t>0,160,400,65,0</t>
+  </si>
+  <si>
+    <t>0,550,400,100,-60</t>
+  </si>
+  <si>
+    <t>0,250,400,80,0</t>
+  </si>
+  <si>
+    <t>0,150,400,70,0</t>
+  </si>
+  <si>
+    <t>0,90,400,50,0</t>
+  </si>
+  <si>
+    <t>0,170,400,75,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,150 +788,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -855,8 +798,30 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -871,7 +836,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,194 +846,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1102,253 +881,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1363,71 +900,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1714,19 +1210,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Z108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P48" workbookViewId="0">
-      <selection activeCell="Z81" sqref="Z81"/>
+    <sheetView tabSelected="1" topLeftCell="O43" workbookViewId="0">
+      <selection activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -1743,7 +1239,7 @@
     <col min="15" max="16" width="11.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="18.75" style="1" customWidth="1"/>
     <col min="18" max="18" width="62.25" style="1" customWidth="1"/>
-    <col min="19" max="21" width="9" style="1"/>
+    <col min="19" max="21" width="9" style="1" customWidth="1"/>
     <col min="22" max="22" width="18.75" style="1" customWidth="1"/>
     <col min="23" max="23" width="15.5" style="1" customWidth="1"/>
     <col min="24" max="25" width="18.75" style="1" customWidth="1"/>
@@ -1751,13 +1247,13 @@
     <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.1" customHeight="1"/>
-    <row r="2" ht="20.1" customHeight="1" spans="25:25">
+    <row r="1" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="Y2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="20.1" customHeight="1" spans="3:26">
+    <row r="3" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1831,7 +1327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" ht="20.1" customHeight="1" spans="3:26">
+    <row r="4" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1874,117 +1370,117 @@
       <c r="P4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="V4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="W4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Z4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="2" t="s">
+    </row>
+    <row r="5" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" ht="20.1" customHeight="1" spans="3:26">
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="T5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="W5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="Y5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" ht="20.1" customHeight="1" spans="3:26">
+    </row>
+    <row r="6" spans="3:26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="3">
         <v>10001</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -2007,8 +1503,8 @@
       <c r="K6" s="4">
         <v>310101</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>52</v>
+      <c r="L6" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="M6" s="3">
         <v>0</v>
@@ -2020,39 +1516,39 @@
         <v>-1</v>
       </c>
       <c r="P6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="S6" s="5">
+        <v>2</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="5">
-        <v>2</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="W6" s="5">
         <v>0</v>
       </c>
       <c r="Y6" s="5">
         <v>0</v>
       </c>
-      <c r="Z6" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="3:26">
+      <c r="Z6" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>10002</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="4">
         <v>2</v>
@@ -2075,8 +1571,8 @@
       <c r="K7" s="4">
         <v>310102</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>58</v>
+      <c r="L7" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M7" s="3">
         <v>0</v>
@@ -2088,10 +1584,10 @@
         <v>-1</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S7" s="5">
         <v>2</v>
@@ -2103,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W7" s="5">
         <v>0</v>
@@ -2111,16 +1607,16 @@
       <c r="Y7" s="5">
         <v>0</v>
       </c>
-      <c r="Z7" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="3:26">
+      <c r="Z7" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>10003</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -2143,8 +1639,8 @@
       <c r="K8" s="4">
         <v>310103</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>61</v>
+      <c r="L8" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -2156,10 +1652,10 @@
         <v>-1</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S8" s="5">
         <v>2</v>
@@ -2171,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W8" s="5">
         <v>0</v>
@@ -2179,16 +1675,16 @@
       <c r="Y8" s="5">
         <v>0</v>
       </c>
-      <c r="Z8" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="3:26">
+      <c r="Z8" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C9" s="3">
         <v>10004</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="4">
         <v>2</v>
@@ -2211,8 +1707,8 @@
       <c r="K9" s="4">
         <v>310104</v>
       </c>
-      <c r="L9" s="7" t="s">
-        <v>64</v>
+      <c r="L9" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="M9" s="3">
         <v>0</v>
@@ -2224,10 +1720,10 @@
         <v>-1</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S9" s="5">
         <v>2</v>
@@ -2239,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W9" s="5">
         <v>0</v>
@@ -2247,16 +1743,16 @@
       <c r="Y9" s="5">
         <v>0</v>
       </c>
-      <c r="Z9" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="3:26">
+      <c r="Z9" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C10" s="3">
         <v>10005</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -2279,8 +1775,8 @@
       <c r="K10" s="4">
         <v>310105</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>67</v>
+      <c r="L10" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="M10" s="3">
         <v>0</v>
@@ -2292,10 +1788,10 @@
         <v>-1</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S10" s="5">
         <v>2</v>
@@ -2307,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W10" s="5">
         <v>0</v>
@@ -2315,16 +1811,16 @@
       <c r="Y10" s="5">
         <v>0</v>
       </c>
-      <c r="Z10" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="3:26">
+      <c r="Z10" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
         <v>10006</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -2347,8 +1843,8 @@
       <c r="K11" s="4">
         <v>310106</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>70</v>
+      <c r="L11" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -2360,10 +1856,10 @@
         <v>-1</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S11" s="5">
         <v>2</v>
@@ -2375,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W11" s="5">
         <v>0</v>
@@ -2383,16 +1879,16 @@
       <c r="Y11" s="5">
         <v>0</v>
       </c>
-      <c r="Z11" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="3:26">
+      <c r="Z11" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
         <v>10007</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
@@ -2415,8 +1911,8 @@
       <c r="K12" s="4">
         <v>310107</v>
       </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
+      <c r="L12" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -2428,10 +1924,10 @@
         <v>-1</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S12" s="5">
         <v>2</v>
@@ -2443,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W12" s="5">
         <v>0</v>
@@ -2451,16 +1947,16 @@
       <c r="Y12" s="5">
         <v>0</v>
       </c>
-      <c r="Z12" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="3:26">
+      <c r="Z12" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
         <v>10008</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -2483,8 +1979,8 @@
       <c r="K13" s="4">
         <v>310160</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>76</v>
+      <c r="L13" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="M13" s="3">
         <v>0</v>
@@ -2496,11 +1992,11 @@
         <v>-1</v>
       </c>
       <c r="P13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q13" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="S13" s="5">
         <v>2</v>
       </c>
@@ -2511,24 +2007,24 @@
         <v>0</v>
       </c>
       <c r="V13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="3:26">
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
         <v>10009</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -2551,8 +2047,8 @@
       <c r="K14" s="4">
         <v>310161</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>80</v>
+      <c r="L14" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -2564,10 +2060,10 @@
         <v>-1</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S14" s="5">
         <v>2</v>
@@ -2579,24 +2075,24 @@
         <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="3:26">
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
         <v>10010</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -2619,8 +2115,8 @@
       <c r="K15" s="4">
         <v>310162</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>83</v>
+      <c r="L15" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -2632,10 +2128,10 @@
         <v>-1</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S15" s="5">
         <v>2</v>
@@ -2647,24 +2143,24 @@
         <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="3:26">
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
         <v>10011</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E16" s="4">
         <v>2</v>
@@ -2687,8 +2183,8 @@
       <c r="K16" s="4">
         <v>310163</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
+      <c r="L16" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="M16" s="3">
         <v>0</v>
@@ -2700,10 +2196,10 @@
         <v>-1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S16" s="5">
         <v>2</v>
@@ -2715,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W16" s="5">
         <v>0</v>
@@ -2723,16 +2219,16 @@
       <c r="Y16" s="5">
         <v>0</v>
       </c>
-      <c r="Z16" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="3:26">
+      <c r="Z16" s="9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>10012</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -2755,8 +2251,8 @@
       <c r="K17" s="4">
         <v>310164</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
+      <c r="L17" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
@@ -2768,10 +2264,10 @@
         <v>-1</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S17" s="5">
         <v>2</v>
@@ -2783,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W17" s="5">
         <v>0</v>
@@ -2791,16 +2287,16 @@
       <c r="Y17" s="5">
         <v>0</v>
       </c>
-      <c r="Z17" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="3:26">
+      <c r="Z17" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>10013</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="4">
         <v>2</v>
@@ -2823,8 +2319,8 @@
       <c r="K18" s="4">
         <v>310165</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>92</v>
+      <c r="L18" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -2836,10 +2332,10 @@
         <v>-1</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S18" s="5">
         <v>2</v>
@@ -2851,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W18" s="5">
         <v>0</v>
@@ -2859,16 +2355,16 @@
       <c r="Y18" s="5">
         <v>0</v>
       </c>
-      <c r="Z18" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="3:26">
+      <c r="Z18" s="9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>10014</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E19" s="4">
         <v>2</v>
@@ -2891,8 +2387,8 @@
       <c r="K19" s="4">
         <v>320101</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>52</v>
+      <c r="L19" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="M19" s="3">
         <v>0</v>
@@ -2904,39 +2400,39 @@
         <v>-1</v>
       </c>
       <c r="P19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="S19" s="5">
+        <v>2</v>
+      </c>
+      <c r="T19" s="5">
+        <v>0</v>
+      </c>
+      <c r="U19" s="5">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S19" s="5">
-        <v>2</v>
-      </c>
-      <c r="T19" s="5">
-        <v>0</v>
-      </c>
-      <c r="U19" s="5">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="W19" s="5">
         <v>0</v>
       </c>
       <c r="Y19" s="5">
         <v>0</v>
       </c>
-      <c r="Z19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="3:26">
+      <c r="Z19" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>10015</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -2959,8 +2455,8 @@
       <c r="K20" s="4">
         <v>320102</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>58</v>
+      <c r="L20" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -2972,10 +2468,10 @@
         <v>-1</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S20" s="5">
         <v>2</v>
@@ -2987,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W20" s="5">
         <v>0</v>
@@ -2995,16 +2491,16 @@
       <c r="Y20" s="5">
         <v>0</v>
       </c>
-      <c r="Z20" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="3:26">
+      <c r="Z20" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>10016</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="4">
         <v>2</v>
@@ -3027,8 +2523,8 @@
       <c r="K21" s="4">
         <v>320103</v>
       </c>
-      <c r="L21" s="7" t="s">
-        <v>61</v>
+      <c r="L21" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="M21" s="3">
         <v>0</v>
@@ -3040,10 +2536,10 @@
         <v>-1</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S21" s="5">
         <v>2</v>
@@ -3055,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W21" s="5">
         <v>0</v>
@@ -3063,16 +2559,16 @@
       <c r="Y21" s="5">
         <v>0</v>
       </c>
-      <c r="Z21" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="3:26">
+      <c r="Z21" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>10017</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" s="4">
         <v>2</v>
@@ -3095,8 +2591,8 @@
       <c r="K22" s="4">
         <v>320104</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>64</v>
+      <c r="L22" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -3108,10 +2604,10 @@
         <v>-1</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S22" s="5">
         <v>2</v>
@@ -3123,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W22" s="5">
         <v>0</v>
@@ -3131,16 +2627,16 @@
       <c r="Y22" s="5">
         <v>0</v>
       </c>
-      <c r="Z22" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="3:26">
+      <c r="Z22" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>10018</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -3163,8 +2659,8 @@
       <c r="K23" s="4">
         <v>320105</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>67</v>
+      <c r="L23" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -3176,10 +2672,10 @@
         <v>-1</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S23" s="5">
         <v>2</v>
@@ -3191,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W23" s="5">
         <v>0</v>
@@ -3199,16 +2695,16 @@
       <c r="Y23" s="5">
         <v>0</v>
       </c>
-      <c r="Z23" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="3:26">
+      <c r="Z23" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>10019</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -3231,8 +2727,8 @@
       <c r="K24" s="4">
         <v>320106</v>
       </c>
-      <c r="L24" s="7" t="s">
-        <v>52</v>
+      <c r="L24" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -3244,39 +2740,39 @@
         <v>-1</v>
       </c>
       <c r="P24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="S24" s="5">
+        <v>2</v>
+      </c>
+      <c r="T24" s="5">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S24" s="5">
-        <v>2</v>
-      </c>
-      <c r="T24" s="5">
-        <v>0</v>
-      </c>
-      <c r="U24" s="5">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="W24" s="5">
         <v>0</v>
       </c>
       <c r="Y24" s="5">
         <v>0</v>
       </c>
-      <c r="Z24" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="3:26">
+      <c r="Z24" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>10020</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25" s="4">
         <v>2</v>
@@ -3299,8 +2795,8 @@
       <c r="K25" s="4">
         <v>320107</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>58</v>
+      <c r="L25" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
@@ -3312,10 +2808,10 @@
         <v>-1</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S25" s="5">
         <v>2</v>
@@ -3327,7 +2823,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W25" s="5">
         <v>0</v>
@@ -3335,16 +2831,16 @@
       <c r="Y25" s="5">
         <v>0</v>
       </c>
-      <c r="Z25" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="3:26">
+      <c r="Z25" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>10021</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -3367,8 +2863,8 @@
       <c r="K26" s="4">
         <v>320161</v>
       </c>
-      <c r="L26" s="7" t="s">
-        <v>61</v>
+      <c r="L26" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -3380,10 +2876,10 @@
         <v>-1</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S26" s="5">
         <v>2</v>
@@ -3395,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W26" s="5">
         <v>0</v>
@@ -3403,16 +2899,16 @@
       <c r="Y26" s="5">
         <v>0</v>
       </c>
-      <c r="Z26" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="3:26">
+      <c r="Z26" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>10022</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="4">
         <v>2</v>
@@ -3435,8 +2931,8 @@
       <c r="K27" s="4">
         <v>320162</v>
       </c>
-      <c r="L27" s="7" t="s">
-        <v>64</v>
+      <c r="L27" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -3448,10 +2944,10 @@
         <v>-1</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S27" s="5">
         <v>2</v>
@@ -3463,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W27" s="5">
         <v>0</v>
@@ -3471,16 +2967,16 @@
       <c r="Y27" s="5">
         <v>0</v>
       </c>
-      <c r="Z27" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26">
+      <c r="Z27" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>10023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E28" s="4">
         <v>2</v>
@@ -3503,8 +2999,8 @@
       <c r="K28" s="4">
         <v>320163</v>
       </c>
-      <c r="L28" s="7" t="s">
-        <v>67</v>
+      <c r="L28" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="M28" s="3">
         <v>0</v>
@@ -3516,10 +3012,10 @@
         <v>-1</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S28" s="5">
         <v>2</v>
@@ -3531,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W28" s="5">
         <v>0</v>
@@ -3539,16 +3035,16 @@
       <c r="Y28" s="5">
         <v>0</v>
       </c>
-      <c r="Z28" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="3:26">
+      <c r="Z28" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>10024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
@@ -3571,8 +3067,8 @@
       <c r="K29" s="4">
         <v>320164</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>70</v>
+      <c r="L29" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -3584,10 +3080,10 @@
         <v>-1</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S29" s="5">
         <v>2</v>
@@ -3599,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W29" s="5">
         <v>0</v>
@@ -3607,16 +3103,16 @@
       <c r="Y29" s="5">
         <v>0</v>
       </c>
-      <c r="Z29" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="3:26">
+      <c r="Z29" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C30" s="3">
         <v>10025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="4">
         <v>2</v>
@@ -3639,8 +3135,8 @@
       <c r="K30" s="4">
         <v>320165</v>
       </c>
-      <c r="L30" s="7" t="s">
-        <v>73</v>
+      <c r="L30" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -3652,10 +3148,10 @@
         <v>-1</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S30" s="5">
         <v>2</v>
@@ -3667,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W30" s="5">
         <v>0</v>
@@ -3675,16 +3171,16 @@
       <c r="Y30" s="5">
         <v>0</v>
       </c>
-      <c r="Z30" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="3:26">
+      <c r="Z30" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C31" s="3">
         <v>10026</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
@@ -3707,8 +3203,8 @@
       <c r="K31" s="4">
         <v>330101</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>76</v>
+      <c r="L31" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
@@ -3720,10 +3216,10 @@
         <v>-1</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S31" s="5">
         <v>2</v>
@@ -3735,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W31" s="5">
         <v>0</v>
@@ -3743,16 +3239,16 @@
       <c r="Y31" s="5">
         <v>0</v>
       </c>
-      <c r="Z31" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="3:26">
+      <c r="Z31" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C32" s="3">
         <v>10027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -3775,8 +3271,8 @@
       <c r="K32" s="4">
         <v>330102</v>
       </c>
-      <c r="L32" s="7" t="s">
-        <v>80</v>
+      <c r="L32" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -3788,10 +3284,10 @@
         <v>-1</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S32" s="5">
         <v>2</v>
@@ -3803,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W32" s="5">
         <v>0</v>
@@ -3811,16 +3307,16 @@
       <c r="Y32" s="5">
         <v>0</v>
       </c>
-      <c r="Z32" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="3:26">
+      <c r="Z32" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C33" s="3">
         <v>10028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" s="4">
         <v>2</v>
@@ -3843,8 +3339,8 @@
       <c r="K33" s="4">
         <v>330103</v>
       </c>
-      <c r="L33" s="7" t="s">
-        <v>83</v>
+      <c r="L33" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -3856,10 +3352,10 @@
         <v>-1</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S33" s="5">
         <v>2</v>
@@ -3871,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W33" s="5">
         <v>0</v>
@@ -3879,16 +3375,16 @@
       <c r="Y33" s="5">
         <v>0</v>
       </c>
-      <c r="Z33" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="3:26">
+      <c r="Z33" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <v>10029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -3911,8 +3407,8 @@
       <c r="K34" s="4">
         <v>330104</v>
       </c>
-      <c r="L34" s="7" t="s">
-        <v>86</v>
+      <c r="L34" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="M34" s="3">
         <v>0</v>
@@ -3924,10 +3420,10 @@
         <v>-1</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q34" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S34" s="5">
         <v>2</v>
@@ -3939,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W34" s="5">
         <v>0</v>
@@ -3947,16 +3443,16 @@
       <c r="Y34" s="5">
         <v>0</v>
       </c>
-      <c r="Z34" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="3:26">
+      <c r="Z34" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
         <v>10030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E35" s="4">
         <v>2</v>
@@ -3979,8 +3475,8 @@
       <c r="K35" s="4">
         <v>330105</v>
       </c>
-      <c r="L35" s="7" t="s">
-        <v>89</v>
+      <c r="L35" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -3992,10 +3488,10 @@
         <v>-1</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S35" s="5">
         <v>2</v>
@@ -4007,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W35" s="5">
         <v>0</v>
@@ -4015,16 +3511,16 @@
       <c r="Y35" s="5">
         <v>0</v>
       </c>
-      <c r="Z35" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="3:26">
+      <c r="Z35" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="36" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C36" s="3">
         <v>10031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -4047,8 +3543,8 @@
       <c r="K36" s="4">
         <v>330106</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>92</v>
+      <c r="L36" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="M36" s="3">
         <v>0</v>
@@ -4060,10 +3556,10 @@
         <v>-1</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S36" s="5">
         <v>2</v>
@@ -4075,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W36" s="5">
         <v>0</v>
@@ -4083,16 +3579,16 @@
       <c r="Y36" s="5">
         <v>0</v>
       </c>
-      <c r="Z36" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="3:26">
+      <c r="Z36" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C37" s="3">
         <v>10032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
@@ -4115,8 +3611,8 @@
       <c r="K37" s="4">
         <v>330107</v>
       </c>
-      <c r="L37" s="7" t="s">
-        <v>73</v>
+      <c r="L37" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="M37" s="3">
         <v>0</v>
@@ -4128,10 +3624,10 @@
         <v>-1</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q37" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S37" s="5">
         <v>2</v>
@@ -4143,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W37" s="5">
         <v>0</v>
@@ -4151,16 +3647,16 @@
       <c r="Y37" s="5">
         <v>0</v>
       </c>
-      <c r="Z37" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="3:26">
+      <c r="Z37" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C38" s="3">
         <v>10033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E38" s="4">
         <v>2</v>
@@ -4183,8 +3679,8 @@
       <c r="K38" s="4">
         <v>330161</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>114</v>
+      <c r="L38" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="M38" s="3">
         <v>0</v>
@@ -4196,10 +3692,10 @@
         <v>-1</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S38" s="5">
         <v>2</v>
@@ -4211,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W38" s="5">
         <v>0</v>
@@ -4219,16 +3715,16 @@
       <c r="Y38" s="5">
         <v>0</v>
       </c>
-      <c r="Z38" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="3:26">
+      <c r="Z38" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C39" s="3">
         <v>10034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
@@ -4251,8 +3747,8 @@
       <c r="K39" s="4">
         <v>330162</v>
       </c>
-      <c r="L39" s="7" t="s">
-        <v>52</v>
+      <c r="L39" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="M39" s="3">
         <v>0</v>
@@ -4264,39 +3760,39 @@
         <v>-1</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S39" s="5">
+        <v>2</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S39" s="5">
-        <v>2</v>
-      </c>
-      <c r="T39" s="5">
-        <v>0</v>
-      </c>
-      <c r="U39" s="5">
-        <v>0</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="W39" s="5">
         <v>0</v>
       </c>
       <c r="Y39" s="5">
         <v>0</v>
       </c>
-      <c r="Z39" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="3:26">
+      <c r="Z39" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="40" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C40" s="3">
         <v>10035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -4319,8 +3815,8 @@
       <c r="K40" s="4">
         <v>330163</v>
       </c>
-      <c r="L40" s="7" t="s">
-        <v>58</v>
+      <c r="L40" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M40" s="3">
         <v>0</v>
@@ -4332,10 +3828,10 @@
         <v>-1</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S40" s="5">
         <v>2</v>
@@ -4347,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W40" s="5">
         <v>0</v>
@@ -4355,16 +3851,16 @@
       <c r="Y40" s="5">
         <v>0</v>
       </c>
-      <c r="Z40" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="3:26">
+      <c r="Z40" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C41" s="3">
         <v>10036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E41" s="4">
         <v>2</v>
@@ -4387,8 +3883,8 @@
       <c r="K41" s="4">
         <v>330164</v>
       </c>
-      <c r="L41" s="7" t="s">
-        <v>61</v>
+      <c r="L41" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -4400,10 +3896,10 @@
         <v>-1</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S41" s="5">
         <v>2</v>
@@ -4415,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W41" s="5">
         <v>0</v>
@@ -4423,16 +3919,16 @@
       <c r="Y41" s="5">
         <v>0</v>
       </c>
-      <c r="Z41" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="3:26">
+      <c r="Z41" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C42" s="3">
         <v>10037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -4455,8 +3951,8 @@
       <c r="K42" s="4">
         <v>330165</v>
       </c>
-      <c r="L42" s="7" t="s">
-        <v>64</v>
+      <c r="L42" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -4468,10 +3964,10 @@
         <v>-1</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S42" s="5">
         <v>2</v>
@@ -4483,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="V42" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W42" s="5">
         <v>0</v>
@@ -4491,16 +3987,16 @@
       <c r="Y42" s="5">
         <v>0</v>
       </c>
-      <c r="Z42" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="3:26">
+      <c r="Z42" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C43" s="3">
         <v>10038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -4523,8 +4019,8 @@
       <c r="K43" s="4">
         <v>340101</v>
       </c>
-      <c r="L43" s="7" t="s">
-        <v>67</v>
+      <c r="L43" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -4536,10 +4032,10 @@
         <v>-1</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S43" s="5">
         <v>2</v>
@@ -4551,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W43" s="5">
         <v>0</v>
@@ -4559,16 +4055,16 @@
       <c r="Y43" s="5">
         <v>0</v>
       </c>
-      <c r="Z43" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="3:26">
+      <c r="Z43" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C44" s="3">
         <v>10039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" s="4">
         <v>2</v>
@@ -4591,8 +4087,8 @@
       <c r="K44" s="4">
         <v>340102</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>52</v>
+      <c r="L44" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -4604,39 +4100,39 @@
         <v>-1</v>
       </c>
       <c r="P44" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="S44" s="5">
+        <v>2</v>
+      </c>
+      <c r="T44" s="5">
+        <v>0</v>
+      </c>
+      <c r="U44" s="5">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S44" s="5">
-        <v>2</v>
-      </c>
-      <c r="T44" s="5">
-        <v>0</v>
-      </c>
-      <c r="U44" s="5">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="W44" s="5">
         <v>0</v>
       </c>
       <c r="Y44" s="5">
         <v>0</v>
       </c>
-      <c r="Z44" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="3:26">
+      <c r="Z44" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C45" s="3">
         <v>10040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
@@ -4659,8 +4155,8 @@
       <c r="K45" s="4">
         <v>340103</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>58</v>
+      <c r="L45" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -4672,10 +4168,10 @@
         <v>-1</v>
       </c>
       <c r="P45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S45" s="5">
         <v>2</v>
@@ -4687,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W45" s="5">
         <v>0</v>
@@ -4695,16 +4191,16 @@
       <c r="Y45" s="5">
         <v>0</v>
       </c>
-      <c r="Z45" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="3:26">
+      <c r="Z45" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="46" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C46" s="3">
         <v>10041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
@@ -4727,8 +4223,8 @@
       <c r="K46" s="4">
         <v>340104</v>
       </c>
-      <c r="L46" s="7" t="s">
-        <v>61</v>
+      <c r="L46" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
@@ -4740,10 +4236,10 @@
         <v>-1</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S46" s="5">
         <v>2</v>
@@ -4755,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="V46" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W46" s="5">
         <v>0</v>
@@ -4763,16 +4259,16 @@
       <c r="Y46" s="5">
         <v>0</v>
       </c>
-      <c r="Z46" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="3:26">
+      <c r="Z46" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C47" s="3">
         <v>10042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="4">
         <v>2</v>
@@ -4795,8 +4291,8 @@
       <c r="K47" s="4">
         <v>340105</v>
       </c>
-      <c r="L47" s="7" t="s">
-        <v>64</v>
+      <c r="L47" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -4808,10 +4304,10 @@
         <v>-1</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S47" s="5">
         <v>2</v>
@@ -4823,7 +4319,7 @@
         <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W47" s="5">
         <v>0</v>
@@ -4831,16 +4327,16 @@
       <c r="Y47" s="5">
         <v>0</v>
       </c>
-      <c r="Z47" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="3:26">
+      <c r="Z47" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C48" s="3">
         <v>10043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -4863,8 +4359,8 @@
       <c r="K48" s="4">
         <v>340106</v>
       </c>
-      <c r="L48" s="7" t="s">
-        <v>67</v>
+      <c r="L48" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -4876,10 +4372,10 @@
         <v>-1</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S48" s="5">
         <v>2</v>
@@ -4891,7 +4387,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W48" s="5">
         <v>0</v>
@@ -4899,16 +4395,16 @@
       <c r="Y48" s="5">
         <v>0</v>
       </c>
-      <c r="Z48" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="49" spans="3:26">
+      <c r="Z48" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C49" s="3">
         <v>10044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E49" s="4">
         <v>2</v>
@@ -4931,8 +4427,8 @@
       <c r="K49" s="4">
         <v>340107</v>
       </c>
-      <c r="L49" s="7" t="s">
-        <v>70</v>
+      <c r="L49" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -4944,10 +4440,10 @@
         <v>-1</v>
       </c>
       <c r="P49" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S49" s="5">
         <v>2</v>
@@ -4959,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W49" s="5">
         <v>0</v>
@@ -4967,16 +4463,16 @@
       <c r="Y49" s="5">
         <v>0</v>
       </c>
-      <c r="Z49" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="50" spans="3:26">
+      <c r="Z49" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C50" s="3">
         <v>10045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -4999,8 +4495,8 @@
       <c r="K50" s="4">
         <v>340161</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>73</v>
+      <c r="L50" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="M50" s="3">
         <v>0</v>
@@ -5012,10 +4508,10 @@
         <v>-1</v>
       </c>
       <c r="P50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S50" s="5">
         <v>2</v>
@@ -5027,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="V50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W50" s="5">
         <v>0</v>
@@ -5035,16 +4531,16 @@
       <c r="Y50" s="5">
         <v>0</v>
       </c>
-      <c r="Z50" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="51" spans="3:26">
+      <c r="Z50" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C51" s="3">
         <v>10046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -5067,8 +4563,8 @@
       <c r="K51" s="4">
         <v>340162</v>
       </c>
-      <c r="L51" s="7" t="s">
-        <v>76</v>
+      <c r="L51" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="M51" s="3">
         <v>0</v>
@@ -5080,11 +4576,11 @@
         <v>-1</v>
       </c>
       <c r="P51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="Q51" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="S51" s="5">
         <v>2</v>
       </c>
@@ -5095,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W51" s="5">
         <v>0</v>
@@ -5103,16 +4599,16 @@
       <c r="Y51" s="5">
         <v>0</v>
       </c>
-      <c r="Z51" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="3:26">
+      <c r="Z51" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C52" s="3">
         <v>10047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E52" s="4">
         <v>2</v>
@@ -5135,8 +4631,8 @@
       <c r="K52" s="4">
         <v>340163</v>
       </c>
-      <c r="L52" s="7" t="s">
-        <v>80</v>
+      <c r="L52" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -5148,10 +4644,10 @@
         <v>-1</v>
       </c>
       <c r="P52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q52" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S52" s="5">
         <v>2</v>
@@ -5163,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W52" s="5">
         <v>0</v>
@@ -5171,16 +4667,16 @@
       <c r="Y52" s="5">
         <v>0</v>
       </c>
-      <c r="Z52" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="3:26">
+      <c r="Z52" s="9" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C53" s="3">
         <v>10048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -5203,8 +4699,8 @@
       <c r="K53" s="4">
         <v>340164</v>
       </c>
-      <c r="L53" s="7" t="s">
-        <v>83</v>
+      <c r="L53" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="M53" s="3">
         <v>0</v>
@@ -5216,10 +4712,10 @@
         <v>-1</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q53" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S53" s="5">
         <v>2</v>
@@ -5231,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="V53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W53" s="5">
         <v>0</v>
@@ -5239,16 +4735,16 @@
       <c r="Y53" s="5">
         <v>0</v>
       </c>
-      <c r="Z53" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="54" spans="3:26">
+      <c r="Z53" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C54" s="3">
         <v>10049</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -5271,8 +4767,8 @@
       <c r="K54" s="4">
         <v>340165</v>
       </c>
-      <c r="L54" s="7" t="s">
-        <v>86</v>
+      <c r="L54" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="M54" s="3">
         <v>0</v>
@@ -5284,10 +4780,10 @@
         <v>-1</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q54" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S54" s="5">
         <v>2</v>
@@ -5299,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W54" s="5">
         <v>0</v>
@@ -5307,16 +4803,16 @@
       <c r="Y54" s="5">
         <v>0</v>
       </c>
-      <c r="Z54" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="55" spans="3:26">
+      <c r="Z54" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C55" s="3">
         <v>10050</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E55" s="4">
         <v>2</v>
@@ -5339,8 +4835,8 @@
       <c r="K55" s="4">
         <v>350101</v>
       </c>
-      <c r="L55" s="7" t="s">
-        <v>89</v>
+      <c r="L55" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="M55" s="3">
         <v>0</v>
@@ -5352,10 +4848,10 @@
         <v>-1</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q55" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S55" s="5">
         <v>2</v>
@@ -5367,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W55" s="5">
         <v>0</v>
@@ -5375,16 +4871,16 @@
       <c r="Y55" s="5">
         <v>0</v>
       </c>
-      <c r="Z55" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="3:26">
+      <c r="Z55" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C56" s="3">
         <v>10051</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E56" s="4">
         <v>2</v>
@@ -5407,8 +4903,8 @@
       <c r="K56" s="4">
         <v>350102</v>
       </c>
-      <c r="L56" s="7" t="s">
-        <v>92</v>
+      <c r="L56" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="M56" s="3">
         <v>0</v>
@@ -5420,10 +4916,10 @@
         <v>-1</v>
       </c>
       <c r="P56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S56" s="5">
         <v>2</v>
@@ -5435,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W56" s="5">
         <v>0</v>
@@ -5443,16 +4939,16 @@
       <c r="Y56" s="5">
         <v>0</v>
       </c>
-      <c r="Z56" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="3:26">
+      <c r="Z56" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C57" s="3">
         <v>10052</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57" s="4">
         <v>2</v>
@@ -5475,8 +4971,8 @@
       <c r="K57" s="4">
         <v>350103</v>
       </c>
-      <c r="L57" s="7" t="s">
-        <v>73</v>
+      <c r="L57" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -5488,10 +4984,10 @@
         <v>-1</v>
       </c>
       <c r="P57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S57" s="5">
         <v>2</v>
@@ -5503,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W57" s="5">
         <v>0</v>
@@ -5511,16 +5007,16 @@
       <c r="Y57" s="5">
         <v>0</v>
       </c>
-      <c r="Z57" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26">
+      <c r="Z57" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C58" s="3">
         <v>10053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E58" s="4">
         <v>2</v>
@@ -5543,8 +5039,8 @@
       <c r="K58" s="4">
         <v>350104</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>114</v>
+      <c r="L58" s="6" t="s">
+        <v>113</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -5556,10 +5052,10 @@
         <v>-1</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S58" s="5">
         <v>2</v>
@@ -5571,7 +5067,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W58" s="5">
         <v>0</v>
@@ -5579,16 +5075,16 @@
       <c r="Y58" s="5">
         <v>0</v>
       </c>
-      <c r="Z58" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26">
+      <c r="Z58" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C59" s="3">
         <v>10054</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" s="4">
         <v>2</v>
@@ -5611,8 +5107,8 @@
       <c r="K59" s="4">
         <v>350105</v>
       </c>
-      <c r="L59" s="7" t="s">
-        <v>52</v>
+      <c r="L59" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -5624,39 +5120,39 @@
         <v>-1</v>
       </c>
       <c r="P59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q59" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="S59" s="5">
+        <v>2</v>
+      </c>
+      <c r="T59" s="5">
+        <v>0</v>
+      </c>
+      <c r="U59" s="5">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S59" s="5">
-        <v>2</v>
-      </c>
-      <c r="T59" s="5">
-        <v>0</v>
-      </c>
-      <c r="U59" s="5">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="W59" s="5">
         <v>0</v>
       </c>
       <c r="Y59" s="5">
         <v>0</v>
       </c>
-      <c r="Z59" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="3:26">
+      <c r="Z59" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C60" s="3">
         <v>10055</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E60" s="4">
         <v>2</v>
@@ -5679,8 +5175,8 @@
       <c r="K60" s="4">
         <v>350106</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>58</v>
+      <c r="L60" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -5692,10 +5188,10 @@
         <v>-1</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S60" s="5">
         <v>2</v>
@@ -5707,7 +5203,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W60" s="5">
         <v>0</v>
@@ -5715,16 +5211,16 @@
       <c r="Y60" s="5">
         <v>0</v>
       </c>
-      <c r="Z60" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="3:26">
+      <c r="Z60" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C61" s="3">
         <v>10056</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="4">
         <v>2</v>
@@ -5747,8 +5243,8 @@
       <c r="K61" s="4">
         <v>350161</v>
       </c>
-      <c r="L61" s="7" t="s">
-        <v>61</v>
+      <c r="L61" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -5760,10 +5256,10 @@
         <v>-1</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S61" s="5">
         <v>2</v>
@@ -5775,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="V61" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W61" s="5">
         <v>0</v>
@@ -5783,16 +5279,16 @@
       <c r="Y61" s="5">
         <v>0</v>
       </c>
-      <c r="Z61" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="3:26">
+      <c r="Z61" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C62" s="3">
         <v>10057</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E62" s="4">
         <v>2</v>
@@ -5815,8 +5311,8 @@
       <c r="K62" s="4">
         <v>350162</v>
       </c>
-      <c r="L62" s="7" t="s">
-        <v>64</v>
+      <c r="L62" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -5828,10 +5324,10 @@
         <v>-1</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S62" s="5">
         <v>2</v>
@@ -5843,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W62" s="5">
         <v>0</v>
@@ -5851,16 +5347,16 @@
       <c r="Y62" s="5">
         <v>0</v>
       </c>
-      <c r="Z62" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="3:26">
+      <c r="Z62" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C63" s="3">
         <v>10058</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E63" s="4">
         <v>2</v>
@@ -5883,8 +5379,8 @@
       <c r="K63" s="4">
         <v>350163</v>
       </c>
-      <c r="L63" s="7" t="s">
-        <v>67</v>
+      <c r="L63" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="M63" s="3">
         <v>0</v>
@@ -5896,10 +5392,10 @@
         <v>-1</v>
       </c>
       <c r="P63" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S63" s="5">
         <v>2</v>
@@ -5911,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="V63" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W63" s="5">
         <v>0</v>
@@ -5919,16 +5415,16 @@
       <c r="Y63" s="5">
         <v>0</v>
       </c>
-      <c r="Z63" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="3:26">
+      <c r="Z63" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C64" s="3">
         <v>10059</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E64" s="4">
         <v>2</v>
@@ -5951,8 +5447,8 @@
       <c r="K64" s="4">
         <v>350164</v>
       </c>
-      <c r="L64" s="7" t="s">
-        <v>83</v>
+      <c r="L64" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="M64" s="3">
         <v>0</v>
@@ -5964,10 +5460,10 @@
         <v>-1</v>
       </c>
       <c r="P64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S64" s="5">
         <v>2</v>
@@ -5979,24 +5475,24 @@
         <v>0</v>
       </c>
       <c r="V64" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="W64" s="5">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="5">
-        <v>0</v>
-      </c>
-      <c r="Z64" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="3:26">
+    </row>
+    <row r="65" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C65" s="3">
         <v>10060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E65" s="4">
         <v>2</v>
@@ -6019,8 +5515,8 @@
       <c r="K65" s="4">
         <v>350165</v>
       </c>
-      <c r="L65" s="7" t="s">
-        <v>86</v>
+      <c r="L65" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="M65" s="3">
         <v>0</v>
@@ -6032,10 +5528,10 @@
         <v>-1</v>
       </c>
       <c r="P65" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q65" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S65" s="5">
         <v>2</v>
@@ -6047,7 +5543,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W65" s="5">
         <v>0</v>
@@ -6055,16 +5551,16 @@
       <c r="Y65" s="5">
         <v>0</v>
       </c>
-      <c r="Z65" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="66" spans="3:26">
+      <c r="Z65" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C66" s="3">
         <v>20001</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E66" s="3">
         <v>1</v>
@@ -6087,49 +5583,49 @@
       <c r="K66" s="3">
         <v>400001</v>
       </c>
-      <c r="L66" s="7" t="s">
+      <c r="L66" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0</v>
+      </c>
+      <c r="P66" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="M66" s="5">
-        <v>0</v>
-      </c>
-      <c r="N66" s="1">
-        <v>0</v>
-      </c>
-      <c r="P66" s="1" t="s">
+      <c r="Q66" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="Q66" s="3" t="s">
+      <c r="S66" s="5">
+        <v>2</v>
+      </c>
+      <c r="T66" s="5">
+        <v>0</v>
+      </c>
+      <c r="U66" s="5">
+        <v>0</v>
+      </c>
+      <c r="V66" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="S66" s="5">
-        <v>2</v>
-      </c>
-      <c r="T66" s="5">
-        <v>0</v>
-      </c>
-      <c r="U66" s="5">
-        <v>0</v>
-      </c>
-      <c r="V66" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="W66" s="1">
         <v>0</v>
       </c>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
-      <c r="Z66" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="3:26">
+      <c r="Z66" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C67" s="3">
         <v>20002</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="3">
         <v>1</v>
@@ -6152,21 +5648,21 @@
       <c r="K67" s="3">
         <v>400002</v>
       </c>
-      <c r="L67" s="7" t="s">
+      <c r="L67" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M67" s="5">
-        <v>0</v>
-      </c>
-      <c r="N67" s="1">
-        <v>0</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q67" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="S67" s="5">
         <v>2</v>
       </c>
@@ -6177,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W67" s="1">
         <v>0</v>
@@ -6185,16 +5681,16 @@
       <c r="Y67" s="1">
         <v>0</v>
       </c>
-      <c r="Z67" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="3:26">
+      <c r="Z67" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C68" s="3">
         <v>20003</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E68" s="3">
         <v>1</v>
@@ -6217,21 +5713,21 @@
       <c r="K68" s="3">
         <v>400003</v>
       </c>
-      <c r="L68" s="7" t="s">
+      <c r="L68" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0</v>
+      </c>
+      <c r="P68" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q68" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M68" s="5">
-        <v>0</v>
-      </c>
-      <c r="N68" s="1">
-        <v>0</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q68" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="S68" s="5">
         <v>2</v>
       </c>
@@ -6242,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W68" s="1">
         <v>0</v>
@@ -6250,16 +5746,16 @@
       <c r="Y68" s="1">
         <v>0</v>
       </c>
-      <c r="Z68" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="3:26">
+      <c r="Z68" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C69" s="3">
         <v>20004</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E69" s="3">
         <v>1</v>
@@ -6282,21 +5778,21 @@
       <c r="K69" s="3">
         <v>400004</v>
       </c>
-      <c r="L69" s="7" t="s">
+      <c r="L69" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0</v>
+      </c>
+      <c r="N69" s="1">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q69" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M69" s="5">
-        <v>0</v>
-      </c>
-      <c r="N69" s="1">
-        <v>0</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q69" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="S69" s="5">
         <v>2</v>
       </c>
@@ -6307,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="V69" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W69" s="1">
         <v>0</v>
@@ -6315,16 +5811,16 @@
       <c r="Y69" s="1">
         <v>0</v>
       </c>
-      <c r="Z69" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="70" spans="3:26">
+      <c r="Z69" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="70" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C70" s="3">
         <v>20005</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E70" s="3">
         <v>1</v>
@@ -6347,21 +5843,21 @@
       <c r="K70" s="3">
         <v>400005</v>
       </c>
-      <c r="L70" s="7" t="s">
+      <c r="L70" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0</v>
+      </c>
+      <c r="P70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q70" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M70" s="5">
-        <v>0</v>
-      </c>
-      <c r="N70" s="1">
-        <v>0</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q70" s="3" t="s">
-        <v>65</v>
-      </c>
       <c r="S70" s="5">
         <v>2</v>
       </c>
@@ -6372,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W70" s="1">
         <v>0</v>
@@ -6380,16 +5876,16 @@
       <c r="Y70" s="1">
         <v>0</v>
       </c>
-      <c r="Z70" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="3:26">
+      <c r="Z70" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C71" s="3">
         <v>20006</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E71" s="3">
         <v>1</v>
@@ -6412,21 +5908,21 @@
       <c r="K71" s="3">
         <v>400006</v>
       </c>
-      <c r="L71" s="7" t="s">
+      <c r="L71" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0</v>
+      </c>
+      <c r="P71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q71" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M71" s="5">
-        <v>0</v>
-      </c>
-      <c r="N71" s="1">
-        <v>0</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="S71" s="5">
         <v>2</v>
       </c>
@@ -6437,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="V71" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W71" s="1">
         <v>0</v>
@@ -6445,16 +5941,16 @@
       <c r="Y71" s="1">
         <v>0</v>
       </c>
-      <c r="Z71" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="72" spans="3:26">
+      <c r="Z71" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C72" s="3">
         <v>20007</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E72" s="3">
         <v>1</v>
@@ -6477,21 +5973,21 @@
       <c r="K72" s="3">
         <v>400007</v>
       </c>
-      <c r="L72" s="7" t="s">
+      <c r="L72" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q72" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="M72" s="5">
-        <v>0</v>
-      </c>
-      <c r="N72" s="1">
-        <v>0</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q72" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="S72" s="5">
         <v>2</v>
       </c>
@@ -6502,7 +5998,7 @@
         <v>0</v>
       </c>
       <c r="V72" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W72" s="1">
         <v>0</v>
@@ -6510,16 +6006,16 @@
       <c r="Y72" s="1">
         <v>0</v>
       </c>
-      <c r="Z72" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="73" spans="3:26">
+      <c r="Z72" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C73" s="3">
         <v>20008</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E73" s="3">
         <v>1</v>
@@ -6542,21 +6038,21 @@
       <c r="K73" s="3">
         <v>400008</v>
       </c>
-      <c r="L73" s="7" t="s">
+      <c r="L73" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q73" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M73" s="5">
-        <v>0</v>
-      </c>
-      <c r="N73" s="1">
-        <v>0</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q73" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="S73" s="5">
         <v>2</v>
       </c>
@@ -6567,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W73" s="1">
         <v>0</v>
@@ -6575,119 +6071,119 @@
       <c r="Y73" s="1">
         <v>0</v>
       </c>
-      <c r="Z73" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="4:4">
+      <c r="Z73" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D74" s="4"/>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D75" s="4"/>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D76" s="4"/>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D77" s="4"/>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="4:4">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="4:4">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="4:4">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="4:4">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="4:4">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="4:4">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95" s="4"/>
     </row>
-    <row r="96" spans="4:4">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96" s="4"/>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97" s="4"/>
     </row>
-    <row r="98" spans="4:4">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="4:4">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99" s="4"/>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101" s="4"/>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102" s="4"/>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103" s="4"/>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104" s="4"/>
     </row>
-    <row r="105" spans="4:4">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105" s="4"/>
     </row>
-    <row r="106" spans="4:4">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106" s="4"/>
     </row>
-    <row r="107" spans="4:4">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107" s="4"/>
     </row>
-    <row r="108" spans="4:4">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>